--- a/fulldata.xlsx
+++ b/fulldata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amsterdamumc-my.sharepoint.com/personal/a_p_m_dewi_amsterdamumc_nl/Documents/Scoping review WP2/scoping R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amsterdamumc-my.sharepoint.com/personal/a_p_m_dewi_amsterdamumc_nl/Documents/Scoping review WP2/scoping R backup/scope/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4F74379-1291-469D-AFBB-F752D7053328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBEDFAD9-7DDD-4D40-A24A-2F6052A01C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4E5DFAF4-6A6B-405C-B431-DE4FFC893DBB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9856D7BB-49E2-4EF1-B39F-3FF38CDDACE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4994" uniqueCount="1747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4994" uniqueCount="1742">
   <si>
     <t>item_id</t>
   </si>
@@ -92,7 +92,7 @@
     <t>country</t>
   </si>
   <si>
-    <t>academic_field</t>
+    <t>discipline_frascati_top-level</t>
   </si>
   <si>
     <t>academic_field_comments</t>
@@ -101,7 +101,7 @@
     <t>academic_field_short</t>
   </si>
   <si>
-    <t>academic_field_short_frascati</t>
+    <t>discipline_frascati_2nd-level</t>
   </si>
   <si>
     <t>academic_field_short_frascati_code</t>
@@ -461,7 +461,7 @@
     <t>Data sharing</t>
   </si>
   <si>
-    <t>data-availability</t>
+    <t>data availability</t>
   </si>
   <si>
     <t>% articles adhering to journal instructions on data availability</t>
@@ -868,7 +868,7 @@
     <t>Open science tools</t>
   </si>
   <si>
-    <t>web-based writing aid</t>
+    <t>writing tool</t>
   </si>
   <si>
     <t>Web-based writing aid tool based on CONSORT</t>
@@ -1033,7 +1033,7 @@
     <t>Trial at BMJ Open, whose scope is "clinical medicine, public health and epidemiology"</t>
   </si>
   <si>
-    <t>editor checks reporting</t>
+    <t>editorial checks/peer review</t>
   </si>
   <si>
     <t>Editor checks for completeness of reporting and provides feedback to authors (based on CONSORT checklist)</t>
@@ -1222,7 +1222,7 @@
     <t>10 random studies from 2015 from two journals endorsing guidelines (n = 20) and 4 journals not mentioning guidelines (n = 40)</t>
   </si>
   <si>
-    <t>Basic medicine; Clinical Medicine</t>
+    <t>Basic medicine; Clinical medicine</t>
   </si>
   <si>
     <t>3.1; 3.2</t>
@@ -1481,7 +1481,7 @@
 They are reporting guidelines and it doesn't appear that they are required.</t>
   </si>
   <si>
-    <t>Transparency of Analysis and Design</t>
+    <t>Analysis and Design transparency</t>
   </si>
   <si>
     <t>power and completeness of reporting</t>
@@ -1587,7 +1587,7 @@
     <t>Rewards and incentives</t>
   </si>
   <si>
-    <t>badge for open data</t>
+    <t>badges for open data</t>
   </si>
   <si>
     <t>badge for open data by journal</t>
@@ -1664,7 +1664,7 @@
     <t>Code sharing</t>
   </si>
   <si>
-    <t>code-sharing</t>
+    <t>code sharing</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1731,7 +1731,7 @@
 data sharing statement is required</t>
   </si>
   <si>
-    <t>data-sharing</t>
+    <t>data sharing</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1890,7 +1890,7 @@
 strongly advised</t>
   </si>
   <si>
-    <t>data-sharing statements</t>
+    <t>data availability statements</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1938,6 +1938,9 @@
 N = 569</t>
   </si>
   <si>
+    <t>Basic medicine; Clinical Medicine</t>
+  </si>
+  <si>
     <t>ALS research</t>
   </si>
   <si>
@@ -2158,7 +2161,7 @@
     <t>badge awarding</t>
   </si>
   <si>
-    <t>badge for open science</t>
+    <t>badges for open science</t>
   </si>
   <si>
     <t>open science</t>
@@ -2588,9 +2591,6 @@
   </si>
   <si>
     <t>6 articles</t>
-  </si>
-  <si>
-    <t>journal characteristics</t>
   </si>
   <si>
     <t>various journal characteristics</t>
@@ -2927,7 +2927,7 @@
     <t>"We included publications across various subfields of biomedicine."</t>
   </si>
   <si>
-    <t>role model in open science</t>
+    <t>role models</t>
   </si>
   <si>
     <t>Supervision, role model</t>
@@ -3218,7 +3218,7 @@
     <t>Total: N = 2,478 Intervention journal: n = 838 Comparison journals: n = 419, n = 483, n = 104, n = 634</t>
   </si>
   <si>
-    <t>badge for open data and materials</t>
+    <t>badges for open data and materials</t>
   </si>
   <si>
     <t>Data and material sharing</t>
@@ -3868,9 +3868,6 @@
   <si>
     <t xml:space="preserve">
 1187, 508 papers after removing irrelevant studies</t>
-  </si>
-  <si>
-    <t>Natural sciences, Medical and health sciences</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -3928,9 +3925,6 @@
     <t>Pediatric clinical trials</t>
   </si>
   <si>
-    <t>funder data management policy</t>
-  </si>
-  <si>
     <t>funder data management plan policy</t>
   </si>
   <si>
@@ -4043,7 +4037,7 @@
     <t>N = 300</t>
   </si>
   <si>
-    <t>Clinical medicine, Health sciences, Psychology and cognitive sciences, Other social sciences</t>
+    <t>Clinical medicine; Health sciences; Psychology and cognitive sciences; Other social sciences</t>
   </si>
   <si>
     <t>3.2; 3.3; 5.1; 5.9</t>
@@ -4566,7 +4560,7 @@
 N = 160, subsample of articles stating that data is available n = 50</t>
   </si>
   <si>
-    <t>BMJ, which publishes all kinds of Medical and health reserch</t>
+    <t>BMJ,</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -4613,9 +4607,6 @@
     <t>Badges for sharing data and code at Biostatistics: an observational study</t>
   </si>
   <si>
-    <t>data sharing</t>
-  </si>
-  <si>
     <t>"Our aim is to investigate the effect of badges at increasing reproducible research, specifically, data and code sharing, at Biostatistics"</t>
   </si>
   <si>
@@ -4623,7 +4614,7 @@
 480 articles in total (240 for each intervention and control journal)</t>
   </si>
   <si>
-    <t>Biological sciences; Basic medicine; Clinical medicine; Health Sciences</t>
+    <t>Biological sciences; Basic medicine; Clinical medicine; Health sciences</t>
   </si>
   <si>
     <t>1.6; 3.1; 3.2; 3.3</t>
@@ -4632,7 +4623,7 @@
     <t>Journal "Biostatistics", whose scope is "papers that develop innovative statistical methods with applications to the understanding of human health and disease, including basic biomedical sciences" - e.g., "likelihood methods for inference, epidemiologic statistics, clinical trials, survival analysis, and statistical genetics"</t>
   </si>
   <si>
-    <t>badge for code sharing</t>
+    <t>badges for data sharing</t>
   </si>
   <si>
     <t xml:space="preserve">The effect of badges at Biostatistics was a 7.3% increase in the data sharing rate, 5 times less than the effect of badges on data sharing at Psychological Science (37.9% badge effect).
@@ -4653,14 +4644,14 @@
     <t>Less effect compared to other similar studies</t>
   </si>
   <si>
-    <t>code sharing</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 "Our aim is to investigate the effect of badges at increasing reproducible research, specifically, data and code sharing, at Biostatistics"</t>
   </si>
   <si>
-    <t>badge for data sharing</t>
+    <t>Biological sciences; Basic medicine; Clinical medicine; Health Sciences</t>
+  </si>
+  <si>
+    <t>badges for code sharing</t>
   </si>
   <si>
     <t>No effect on code sharing</t>
@@ -4690,7 +4681,7 @@
 N = 160 allocated (80 control group, 80 intervention group) Final analysis: n = 54 control, n = 57 intervention</t>
   </si>
   <si>
-    <t>BMJ Open - scope: "BMJ Open will consider all research study types from phase I trials to meta-analyses, in the areas of medical and healthcare research.Suitable study types include: qualitative studies; cross-sectional studies or surveys; before and after studies; case-control studies; cohort studies; diagnostic test studies; modelling studies; economic evaluations; randomised controlled trials; systematic reviews; meta-analyses; secondary analyses of databases; study pre-protocols; protocols; pilot studies."</t>
+    <t>BMJ Open</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -5238,7 +5229,7 @@
     <t>"29 published RRs from psychology and neuroscience and 57 non-RR comparison papers"</t>
   </si>
   <si>
-    <t>overall quality</t>
+    <t>research quality</t>
   </si>
   <si>
     <t xml:space="preserve">Rigour of methodology and analysis; overall quality of paper
@@ -5284,9 +5275,6 @@
     <t>"7 biomedical journals (5 from the BMJ Publishing Group and 2 from the Public Library of Science) "</t>
   </si>
   <si>
-    <t>reminders for peer-reviewers</t>
-  </si>
-  <si>
     <t>reminders for peer-reviewers, based on CONSORT and SPIRIT</t>
   </si>
   <si>
@@ -5806,9 +5794,6 @@
   <si>
     <t xml:space="preserve">
 n = 127</t>
-  </si>
-  <si>
-    <t>Natural sciences and Medical and health sciences</t>
   </si>
   <si>
     <t>microarray-based MicroRNA profiling</t>
@@ -6219,11 +6204,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2F5047-F87C-4D21-9936-1E02CF58A189}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09E6E7A-3B39-42F6-93D0-06C4AEA5F978}">
   <dimension ref="A1:AZ105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection sqref="A1:AZ105"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9255,7 +9240,7 @@
         <v>131</v>
       </c>
       <c r="AA20" t="s">
-        <v>457</v>
+        <v>309</v>
       </c>
       <c r="AB20" t="s">
         <v>75</v>
@@ -10168,13 +10153,13 @@
         <v>69</v>
       </c>
       <c r="V26" t="s">
-        <v>364</v>
+        <v>584</v>
       </c>
       <c r="W26" s="2" t="s">
         <v>365</v>
       </c>
       <c r="X26" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="Y26" t="s">
         <v>72</v>
@@ -10183,25 +10168,25 @@
         <v>101</v>
       </c>
       <c r="AA26" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AB26" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AC26" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AD26" t="s">
         <v>78</v>
       </c>
       <c r="AE26" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AF26" t="s">
         <v>78</v>
       </c>
       <c r="AG26" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AH26" t="s">
         <v>79</v>
@@ -10231,25 +10216,25 @@
         <v>55</v>
       </c>
       <c r="AQ26" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AR26" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AS26" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AT26" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AU26" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AV26" t="s">
         <v>55</v>
       </c>
       <c r="AW26" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AX26" t="s">
         <v>55</v>
@@ -10258,21 +10243,21 @@
         <v>92</v>
       </c>
       <c r="AZ26" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B27" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E27" t="s">
         <v>55</v>
@@ -10281,13 +10266,13 @@
         <v>56</v>
       </c>
       <c r="G27" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H27" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="I27" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="J27" t="s">
         <v>55</v>
@@ -10296,7 +10281,7 @@
         <v>61</v>
       </c>
       <c r="L27" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M27" t="s">
         <v>63</v>
@@ -10311,7 +10296,7 @@
         <v>304</v>
       </c>
       <c r="Q27" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="R27" t="s">
         <v>61</v>
@@ -10323,31 +10308,31 @@
         <v>55</v>
       </c>
       <c r="U27" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="V27" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="W27" s="2">
         <v>5.6</v>
       </c>
       <c r="X27" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Y27" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Z27" t="s">
         <v>131</v>
       </c>
       <c r="AA27" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AB27" t="s">
         <v>326</v>
       </c>
       <c r="AC27" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AD27" t="s">
         <v>77</v>
@@ -10356,7 +10341,7 @@
         <v>55</v>
       </c>
       <c r="AF27" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG27" t="s">
         <v>55</v>
@@ -10383,31 +10368,31 @@
         <v>131</v>
       </c>
       <c r="AO27" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AP27" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AQ27" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AR27" t="s">
         <v>55</v>
       </c>
       <c r="AS27" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AT27" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AU27" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AV27" t="s">
         <v>55</v>
       </c>
       <c r="AW27" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AX27" t="s">
         <v>55</v>
@@ -10416,21 +10401,21 @@
         <v>92</v>
       </c>
       <c r="AZ27" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B28" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E28" t="s">
         <v>55</v>
@@ -10439,7 +10424,7 @@
         <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H28" t="s">
         <v>58</v>
@@ -10469,7 +10454,7 @@
         <v>65</v>
       </c>
       <c r="Q28" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="R28" t="s">
         <v>61</v>
@@ -10505,13 +10490,13 @@
         <v>75</v>
       </c>
       <c r="AC28" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AD28" t="s">
         <v>78</v>
       </c>
       <c r="AE28" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AF28" t="s">
         <v>61</v>
@@ -10547,25 +10532,25 @@
         <v>55</v>
       </c>
       <c r="AQ28" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AR28" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AS28" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AT28" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AU28" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AV28" t="s">
         <v>55</v>
       </c>
       <c r="AW28" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AX28" t="s">
         <v>55</v>
@@ -10574,21 +10559,21 @@
         <v>92</v>
       </c>
       <c r="AZ28" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B29" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E29" t="s">
         <v>126</v>
@@ -10597,7 +10582,7 @@
         <v>56</v>
       </c>
       <c r="G29" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H29" t="s">
         <v>58</v>
@@ -10627,7 +10612,7 @@
         <v>65</v>
       </c>
       <c r="Q29" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="R29" t="s">
         <v>61</v>
@@ -10636,7 +10621,7 @@
         <v>184</v>
       </c>
       <c r="T29" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="U29" t="s">
         <v>472</v>
@@ -10648,7 +10633,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="X29" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Y29" t="s">
         <v>72</v>
@@ -10660,7 +10645,7 @@
         <v>126</v>
       </c>
       <c r="AB29" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AC29" t="s">
         <v>126</v>
@@ -10702,19 +10687,19 @@
         <v>83</v>
       </c>
       <c r="AP29" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AQ29" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AR29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AS29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AT29" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AU29" t="s">
         <v>241</v>
@@ -10723,7 +10708,7 @@
         <v>55</v>
       </c>
       <c r="AW29" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AX29" t="s">
         <v>55</v>
@@ -10732,30 +10717,30 @@
         <v>92</v>
       </c>
       <c r="AZ29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B30" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E30" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F30" t="s">
         <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H30" t="s">
         <v>58</v>
@@ -10785,7 +10770,7 @@
         <v>65</v>
       </c>
       <c r="Q30" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="R30" t="s">
         <v>61</v>
@@ -10794,7 +10779,7 @@
         <v>184</v>
       </c>
       <c r="T30" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="U30" t="s">
         <v>472</v>
@@ -10806,7 +10791,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="X30" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Y30" t="s">
         <v>72</v>
@@ -10815,13 +10800,13 @@
         <v>475</v>
       </c>
       <c r="AA30" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AB30" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AC30" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AD30" t="s">
         <v>77</v>
@@ -10860,19 +10845,19 @@
         <v>135</v>
       </c>
       <c r="AP30" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AQ30" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AR30" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AS30" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AT30" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AU30" t="s">
         <v>241</v>
@@ -10881,7 +10866,7 @@
         <v>55</v>
       </c>
       <c r="AW30" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AX30" t="s">
         <v>55</v>
@@ -10890,21 +10875,21 @@
         <v>92</v>
       </c>
       <c r="AZ30" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B31" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E31" t="s">
         <v>126</v>
@@ -10913,7 +10898,7 @@
         <v>56</v>
       </c>
       <c r="G31" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H31" t="s">
         <v>58</v>
@@ -10922,7 +10907,7 @@
         <v>59</v>
       </c>
       <c r="J31" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K31" t="s">
         <v>61</v>
@@ -10943,7 +10928,7 @@
         <v>65</v>
       </c>
       <c r="Q31" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="R31" t="s">
         <v>61</v>
@@ -10952,7 +10937,7 @@
         <v>184</v>
       </c>
       <c r="T31" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="U31" t="s">
         <v>472</v>
@@ -10964,7 +10949,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="X31" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Y31" t="s">
         <v>72</v>
@@ -10976,34 +10961,34 @@
         <v>126</v>
       </c>
       <c r="AB31" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AC31" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AD31" t="s">
         <v>77</v>
       </c>
       <c r="AE31" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AF31" t="s">
         <v>78</v>
       </c>
       <c r="AG31" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AH31" t="s">
         <v>79</v>
       </c>
       <c r="AI31" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AJ31" t="s">
         <v>106</v>
       </c>
       <c r="AK31" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AL31">
         <v>0</v>
@@ -11021,16 +11006,16 @@
         <v>55</v>
       </c>
       <c r="AQ31" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AR31" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AS31" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AT31" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AU31" t="s">
         <v>241</v>
@@ -11039,10 +11024,10 @@
         <v>55</v>
       </c>
       <c r="AW31" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AX31" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AY31" t="s">
         <v>144</v>
@@ -11050,25 +11035,25 @@
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B32" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E32" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F32" t="s">
         <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H32" t="s">
         <v>58</v>
@@ -11077,7 +11062,7 @@
         <v>59</v>
       </c>
       <c r="J32" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K32" t="s">
         <v>61</v>
@@ -11098,7 +11083,7 @@
         <v>65</v>
       </c>
       <c r="Q32" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="R32" t="s">
         <v>61</v>
@@ -11107,7 +11092,7 @@
         <v>184</v>
       </c>
       <c r="T32" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="U32" t="s">
         <v>472</v>
@@ -11119,7 +11104,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="X32" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Y32" t="s">
         <v>72</v>
@@ -11128,37 +11113,37 @@
         <v>475</v>
       </c>
       <c r="AA32" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AB32" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AC32" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AD32" t="s">
         <v>77</v>
       </c>
       <c r="AE32" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AF32" t="s">
         <v>78</v>
       </c>
       <c r="AG32" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AH32" t="s">
         <v>79</v>
       </c>
       <c r="AI32" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AJ32" t="s">
         <v>106</v>
       </c>
       <c r="AK32" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AL32">
         <v>0</v>
@@ -11176,16 +11161,16 @@
         <v>55</v>
       </c>
       <c r="AQ32" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AR32" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AS32" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AT32" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AU32" t="s">
         <v>241</v>
@@ -11194,7 +11179,7 @@
         <v>55</v>
       </c>
       <c r="AW32" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AX32" t="s">
         <v>55</v>
@@ -11205,16 +11190,16 @@
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B33" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E33" t="s">
         <v>55</v>
@@ -11223,7 +11208,7 @@
         <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H33" t="s">
         <v>58</v>
@@ -11253,7 +11238,7 @@
         <v>65</v>
       </c>
       <c r="Q33" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="R33" t="s">
         <v>61</v>
@@ -11262,7 +11247,7 @@
         <v>67</v>
       </c>
       <c r="T33" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="U33" t="s">
         <v>69</v>
@@ -11274,22 +11259,22 @@
         <v>3.3</v>
       </c>
       <c r="X33" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Y33" t="s">
         <v>158</v>
       </c>
       <c r="Z33" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AA33" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AB33" t="s">
         <v>326</v>
       </c>
       <c r="AC33" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AD33" t="s">
         <v>61</v>
@@ -11304,7 +11289,7 @@
         <v>130</v>
       </c>
       <c r="AH33" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AI33" t="s">
         <v>55</v>
@@ -11328,28 +11313,28 @@
         <v>215</v>
       </c>
       <c r="AP33" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AQ33" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AR33" t="s">
         <v>55</v>
       </c>
       <c r="AS33" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AT33" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AU33" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AV33" t="s">
         <v>55</v>
       </c>
       <c r="AW33" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AX33" t="s">
         <v>55</v>
@@ -11360,16 +11345,16 @@
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B34" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E34" t="s">
         <v>55</v>
@@ -11378,7 +11363,7 @@
         <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H34" t="s">
         <v>117</v>
@@ -11387,7 +11372,7 @@
         <v>118</v>
       </c>
       <c r="J34" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="K34" t="s">
         <v>61</v>
@@ -11399,7 +11384,7 @@
         <v>63</v>
       </c>
       <c r="N34" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="O34">
         <v>67</v>
@@ -11408,7 +11393,7 @@
         <v>209</v>
       </c>
       <c r="Q34" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="R34" t="s">
         <v>61</v>
@@ -11429,7 +11414,7 @@
         <v>3.2</v>
       </c>
       <c r="X34" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="Y34" t="s">
         <v>72</v>
@@ -11438,13 +11423,13 @@
         <v>73</v>
       </c>
       <c r="AA34" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AB34" t="s">
         <v>75</v>
       </c>
       <c r="AC34" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AD34" t="s">
         <v>77</v>
@@ -11486,16 +11471,16 @@
         <v>55</v>
       </c>
       <c r="AQ34" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AR34" t="s">
         <v>55</v>
       </c>
       <c r="AS34" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AT34" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AU34" t="s">
         <v>241</v>
@@ -11504,7 +11489,7 @@
         <v>55</v>
       </c>
       <c r="AW34" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AX34" t="s">
         <v>55</v>
@@ -11515,16 +11500,16 @@
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B35" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E35" t="s">
         <v>55</v>
@@ -11533,7 +11518,7 @@
         <v>56</v>
       </c>
       <c r="G35" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H35" t="s">
         <v>117</v>
@@ -11563,13 +11548,13 @@
         <v>65</v>
       </c>
       <c r="Q35" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="R35" t="s">
         <v>61</v>
       </c>
       <c r="S35" t="s">
-        <v>67</v>
+        <v>432</v>
       </c>
       <c r="T35" t="s">
         <v>55</v>
@@ -11578,13 +11563,13 @@
         <v>69</v>
       </c>
       <c r="V35" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="X35" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="Y35" t="s">
         <v>72</v>
@@ -11623,7 +11608,7 @@
         <v>131</v>
       </c>
       <c r="AK35" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AL35">
         <v>0</v>
@@ -11641,16 +11626,16 @@
         <v>55</v>
       </c>
       <c r="AQ35" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AR35" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AS35" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AT35" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AU35" t="s">
         <v>241</v>
@@ -11670,16 +11655,16 @@
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B36" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E36" t="s">
         <v>55</v>
@@ -11688,7 +11673,7 @@
         <v>56</v>
       </c>
       <c r="G36" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H36" t="s">
         <v>247</v>
@@ -11709,16 +11694,16 @@
         <v>131</v>
       </c>
       <c r="N36" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="O36">
         <v>5</v>
       </c>
       <c r="P36" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="Q36" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="R36" t="s">
         <v>61</v>
@@ -11733,28 +11718,28 @@
         <v>69</v>
       </c>
       <c r="V36" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="W36" s="2">
         <v>1.6</v>
       </c>
       <c r="X36" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="Y36" t="s">
         <v>131</v>
       </c>
       <c r="Z36" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AA36" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AB36" t="s">
         <v>394</v>
       </c>
       <c r="AC36" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AD36" t="s">
         <v>78</v>
@@ -11769,7 +11754,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AI36" t="s">
         <v>55</v>
@@ -11793,28 +11778,28 @@
         <v>215</v>
       </c>
       <c r="AP36" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AQ36" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AR36" t="s">
         <v>55</v>
       </c>
       <c r="AS36" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AT36" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AU36" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AV36" t="s">
         <v>55</v>
       </c>
       <c r="AW36" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AX36" t="s">
         <v>55</v>
@@ -11825,25 +11810,25 @@
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B37" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E37" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F37" t="s">
         <v>56</v>
       </c>
       <c r="G37" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H37" t="s">
         <v>247</v>
@@ -11852,7 +11837,7 @@
         <v>248</v>
       </c>
       <c r="J37" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="K37" t="s">
         <v>530</v>
@@ -11864,16 +11849,16 @@
         <v>131</v>
       </c>
       <c r="N37" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="O37">
         <v>3</v>
       </c>
       <c r="P37" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="Q37" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="R37" t="s">
         <v>418</v>
@@ -11882,7 +11867,7 @@
         <v>67</v>
       </c>
       <c r="T37" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="U37" t="s">
         <v>69</v>
@@ -11894,28 +11879,28 @@
         <v>3.3</v>
       </c>
       <c r="X37" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="Y37" t="s">
         <v>131</v>
       </c>
       <c r="Z37" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AA37" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AB37" t="s">
         <v>394</v>
       </c>
       <c r="AC37" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AD37" t="s">
         <v>78</v>
       </c>
       <c r="AE37" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AF37" t="s">
         <v>61</v>
@@ -11948,19 +11933,19 @@
         <v>215</v>
       </c>
       <c r="AP37" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AQ37" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AR37" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AS37" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AT37" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AU37" t="s">
         <v>140</v>
@@ -11969,39 +11954,39 @@
         <v>55</v>
       </c>
       <c r="AW37" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="AX37" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AY37" t="s">
         <v>92</v>
       </c>
       <c r="AZ37" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B38" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E38" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F38" t="s">
         <v>56</v>
       </c>
       <c r="G38" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H38" t="s">
         <v>247</v>
@@ -12010,7 +11995,7 @@
         <v>248</v>
       </c>
       <c r="J38" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="K38" t="s">
         <v>530</v>
@@ -12022,16 +12007,16 @@
         <v>131</v>
       </c>
       <c r="N38" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="O38">
         <v>3</v>
       </c>
       <c r="P38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="Q38" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="R38" t="s">
         <v>418</v>
@@ -12040,7 +12025,7 @@
         <v>67</v>
       </c>
       <c r="T38" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="U38" t="s">
         <v>69</v>
@@ -12052,28 +12037,28 @@
         <v>3.3</v>
       </c>
       <c r="X38" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="Y38" t="s">
         <v>131</v>
       </c>
       <c r="Z38" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AA38" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AB38" t="s">
         <v>394</v>
       </c>
       <c r="AC38" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AD38" t="s">
         <v>78</v>
       </c>
       <c r="AE38" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AF38" t="s">
         <v>61</v>
@@ -12106,19 +12091,19 @@
         <v>215</v>
       </c>
       <c r="AP38" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AQ38" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="AR38" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AS38" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AT38" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AU38" t="s">
         <v>140</v>
@@ -12127,36 +12112,36 @@
         <v>55</v>
       </c>
       <c r="AW38" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="AX38" t="s">
         <v>55</v>
       </c>
       <c r="AY38" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B39" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E39" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F39" t="s">
         <v>56</v>
       </c>
       <c r="G39" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H39" t="s">
         <v>58</v>
@@ -12186,7 +12171,7 @@
         <v>65</v>
       </c>
       <c r="Q39" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="R39" t="s">
         <v>61</v>
@@ -12207,7 +12192,7 @@
         <v>3.2</v>
       </c>
       <c r="X39" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="Y39" t="s">
         <v>72</v>
@@ -12261,22 +12246,22 @@
         <v>520</v>
       </c>
       <c r="AP39" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AQ39" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AR39" t="s">
         <v>447</v>
       </c>
       <c r="AS39" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AT39" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AU39" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="AV39" t="s">
         <v>55</v>
@@ -12293,25 +12278,25 @@
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B40" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E40" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F40" t="s">
         <v>56</v>
       </c>
       <c r="G40" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H40" t="s">
         <v>117</v>
@@ -12341,7 +12326,7 @@
         <v>65</v>
       </c>
       <c r="Q40" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="R40" t="s">
         <v>61</v>
@@ -12362,7 +12347,7 @@
         <v>3.2</v>
       </c>
       <c r="X40" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="Y40" t="s">
         <v>72</v>
@@ -12371,7 +12356,7 @@
         <v>73</v>
       </c>
       <c r="AA40" t="s">
-        <v>778</v>
+        <v>188</v>
       </c>
       <c r="AB40" t="s">
         <v>127</v>
@@ -12425,7 +12410,7 @@
         <v>447</v>
       </c>
       <c r="AS40" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AT40" t="s">
         <v>781</v>
@@ -12705,7 +12690,7 @@
         <v>811</v>
       </c>
       <c r="AH42" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AI42" t="s">
         <v>812</v>
@@ -12860,7 +12845,7 @@
         <v>826</v>
       </c>
       <c r="AH43" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AI43" t="s">
         <v>812</v>
@@ -13307,7 +13292,7 @@
         <v>876</v>
       </c>
       <c r="AB46" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AC46" t="s">
         <v>877</v>
@@ -15152,7 +15137,7 @@
         <v>61</v>
       </c>
       <c r="S58" t="s">
-        <v>67</v>
+        <v>535</v>
       </c>
       <c r="T58" t="s">
         <v>55</v>
@@ -15197,7 +15182,7 @@
         <v>55</v>
       </c>
       <c r="AH58" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AI58" t="s">
         <v>55</v>
@@ -15319,7 +15304,7 @@
         <v>1069</v>
       </c>
       <c r="V59" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="W59" s="2">
         <v>1.6</v>
@@ -15665,7 +15650,7 @@
         <v>55</v>
       </c>
       <c r="AH61" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AI61" t="s">
         <v>55</v>
@@ -15820,7 +15805,7 @@
         <v>1121</v>
       </c>
       <c r="AH62" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AI62" t="s">
         <v>55</v>
@@ -16085,10 +16070,10 @@
         <v>61</v>
       </c>
       <c r="S64" t="s">
+        <v>535</v>
+      </c>
+      <c r="T64" t="s">
         <v>1154</v>
-      </c>
-      <c r="T64" t="s">
-        <v>1155</v>
       </c>
       <c r="U64" t="s">
         <v>69</v>
@@ -16100,7 +16085,7 @@
         <v>1053</v>
       </c>
       <c r="X64" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="Y64" t="s">
         <v>72</v>
@@ -16115,7 +16100,7 @@
         <v>127</v>
       </c>
       <c r="AC64" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AD64" t="s">
         <v>77</v>
@@ -16139,7 +16124,7 @@
         <v>193</v>
       </c>
       <c r="AK64" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="AL64">
         <v>0</v>
@@ -16157,19 +16142,19 @@
         <v>55</v>
       </c>
       <c r="AQ64" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AR64" t="s">
         <v>1159</v>
       </c>
-      <c r="AR64" t="s">
+      <c r="AS64" t="s">
         <v>1160</v>
       </c>
-      <c r="AS64" t="s">
+      <c r="AT64" t="s">
         <v>1161</v>
       </c>
-      <c r="AT64" t="s">
+      <c r="AU64" t="s">
         <v>1162</v>
-      </c>
-      <c r="AU64" t="s">
-        <v>1163</v>
       </c>
       <c r="AV64" t="s">
         <v>55</v>
@@ -16186,16 +16171,16 @@
     </row>
     <row r="65" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B65" t="s">
         <v>1164</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1165</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E65" t="s">
         <v>55</v>
@@ -16204,7 +16189,7 @@
         <v>56</v>
       </c>
       <c r="G65" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="H65" t="s">
         <v>58</v>
@@ -16234,7 +16219,7 @@
         <v>209</v>
       </c>
       <c r="Q65" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="R65" t="s">
         <v>61</v>
@@ -16255,7 +16240,7 @@
         <v>3.2</v>
       </c>
       <c r="X65" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="Y65" t="s">
         <v>72</v>
@@ -16264,13 +16249,13 @@
         <v>73</v>
       </c>
       <c r="AA65" t="s">
-        <v>1170</v>
+        <v>275</v>
       </c>
       <c r="AB65" t="s">
         <v>127</v>
       </c>
       <c r="AC65" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="AD65" t="s">
         <v>77</v>
@@ -16312,25 +16297,25 @@
         <v>55</v>
       </c>
       <c r="AQ65" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AR65" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS65" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AT65" t="s">
         <v>1172</v>
       </c>
-      <c r="AR65" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS65" t="s">
+      <c r="AU65" t="s">
         <v>1173</v>
       </c>
-      <c r="AT65" t="s">
+      <c r="AV65" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW65" t="s">
         <v>1174</v>
-      </c>
-      <c r="AU65" t="s">
-        <v>1175</v>
-      </c>
-      <c r="AV65" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW65" t="s">
-        <v>1176</v>
       </c>
       <c r="AX65" t="s">
         <v>55</v>
@@ -16341,25 +16326,25 @@
     </row>
     <row r="66" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B66" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E66" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="F66" t="s">
         <v>56</v>
       </c>
       <c r="G66" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="H66" t="s">
         <v>117</v>
@@ -16389,7 +16374,7 @@
         <v>209</v>
       </c>
       <c r="Q66" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="R66" t="s">
         <v>61</v>
@@ -16410,7 +16395,7 @@
         <v>3.2</v>
       </c>
       <c r="X66" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="Y66" t="s">
         <v>72</v>
@@ -16425,7 +16410,7 @@
         <v>127</v>
       </c>
       <c r="AC66" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="AD66" t="s">
         <v>77</v>
@@ -16467,22 +16452,22 @@
         <v>55</v>
       </c>
       <c r="AQ66" t="s">
+        <v>1183</v>
+      </c>
+      <c r="AR66" t="s">
+        <v>1184</v>
+      </c>
+      <c r="AS66" t="s">
         <v>1185</v>
       </c>
-      <c r="AR66" t="s">
+      <c r="AT66" t="s">
         <v>1186</v>
       </c>
-      <c r="AS66" t="s">
+      <c r="AU66" t="s">
         <v>1187</v>
       </c>
-      <c r="AT66" t="s">
+      <c r="AV66" t="s">
         <v>1188</v>
-      </c>
-      <c r="AU66" t="s">
-        <v>1189</v>
-      </c>
-      <c r="AV66" t="s">
-        <v>1190</v>
       </c>
       <c r="AW66" t="s">
         <v>55</v>
@@ -16496,25 +16481,25 @@
     </row>
     <row r="67" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B67" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E67" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="F67" t="s">
         <v>56</v>
       </c>
       <c r="G67" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="H67" t="s">
         <v>117</v>
@@ -16544,7 +16529,7 @@
         <v>209</v>
       </c>
       <c r="Q67" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="R67" t="s">
         <v>61</v>
@@ -16565,7 +16550,7 @@
         <v>3.2</v>
       </c>
       <c r="X67" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="Y67" t="s">
         <v>72</v>
@@ -16622,22 +16607,22 @@
         <v>55</v>
       </c>
       <c r="AQ67" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AR67" t="s">
+        <v>1184</v>
+      </c>
+      <c r="AS67" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AT67" t="s">
         <v>1193</v>
       </c>
-      <c r="AR67" t="s">
-        <v>1186</v>
-      </c>
-      <c r="AS67" t="s">
+      <c r="AU67" t="s">
         <v>1194</v>
       </c>
-      <c r="AT67" t="s">
+      <c r="AV67" t="s">
         <v>1195</v>
-      </c>
-      <c r="AU67" t="s">
-        <v>1196</v>
-      </c>
-      <c r="AV67" t="s">
-        <v>1197</v>
       </c>
       <c r="AW67" t="s">
         <v>55</v>
@@ -16649,30 +16634,30 @@
         <v>144</v>
       </c>
       <c r="AZ67" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="68" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B68" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E68" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="F68" t="s">
         <v>56</v>
       </c>
       <c r="G68" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="H68" t="s">
         <v>58</v>
@@ -16681,7 +16666,7 @@
         <v>59</v>
       </c>
       <c r="J68" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="K68" t="s">
         <v>61</v>
@@ -16702,7 +16687,7 @@
         <v>65</v>
       </c>
       <c r="Q68" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="R68" t="s">
         <v>61</v>
@@ -16717,13 +16702,13 @@
         <v>69</v>
       </c>
       <c r="V68" t="s">
+        <v>1204</v>
+      </c>
+      <c r="W68" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="X68" t="s">
         <v>1206</v>
-      </c>
-      <c r="W68" s="2" t="s">
-        <v>1207</v>
-      </c>
-      <c r="X68" t="s">
-        <v>1208</v>
       </c>
       <c r="Y68" t="s">
         <v>72</v>
@@ -16738,13 +16723,13 @@
         <v>75</v>
       </c>
       <c r="AC68" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="AD68" t="s">
         <v>78</v>
       </c>
       <c r="AE68" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="AF68" t="s">
         <v>78</v>
@@ -16780,28 +16765,28 @@
         <v>55</v>
       </c>
       <c r="AQ68" t="s">
+        <v>1209</v>
+      </c>
+      <c r="AR68" t="s">
+        <v>1210</v>
+      </c>
+      <c r="AS68" t="s">
         <v>1211</v>
       </c>
-      <c r="AR68" t="s">
+      <c r="AT68" t="s">
         <v>1212</v>
       </c>
-      <c r="AS68" t="s">
+      <c r="AU68" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV68" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW68" t="s">
         <v>1213</v>
       </c>
-      <c r="AT68" t="s">
+      <c r="AX68" t="s">
         <v>1214</v>
-      </c>
-      <c r="AU68" t="s">
-        <v>55</v>
-      </c>
-      <c r="AV68" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW68" t="s">
-        <v>1215</v>
-      </c>
-      <c r="AX68" t="s">
-        <v>1216</v>
       </c>
       <c r="AY68" t="s">
         <v>144</v>
@@ -16809,25 +16794,25 @@
     </row>
     <row r="69" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B69" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E69" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="F69" t="s">
         <v>56</v>
       </c>
       <c r="G69" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="H69" t="s">
         <v>58</v>
@@ -16836,7 +16821,7 @@
         <v>59</v>
       </c>
       <c r="J69" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="K69" t="s">
         <v>61</v>
@@ -16857,7 +16842,7 @@
         <v>65</v>
       </c>
       <c r="Q69" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="R69" t="s">
         <v>61</v>
@@ -16872,13 +16857,13 @@
         <v>69</v>
       </c>
       <c r="V69" t="s">
+        <v>1204</v>
+      </c>
+      <c r="W69" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="X69" t="s">
         <v>1206</v>
-      </c>
-      <c r="W69" s="2" t="s">
-        <v>1207</v>
-      </c>
-      <c r="X69" t="s">
-        <v>1208</v>
       </c>
       <c r="Y69" t="s">
         <v>72</v>
@@ -16893,7 +16878,7 @@
         <v>127</v>
       </c>
       <c r="AC69" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="AD69" t="s">
         <v>77</v>
@@ -16917,7 +16902,7 @@
         <v>193</v>
       </c>
       <c r="AK69" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="AL69">
         <v>0</v>
@@ -16935,17 +16920,17 @@
         <v>55</v>
       </c>
       <c r="AQ69" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AR69" t="s">
+        <v>1210</v>
+      </c>
+      <c r="AS69" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AT69" t="s">
         <v>1221</v>
       </c>
-      <c r="AR69" t="s">
-        <v>1212</v>
-      </c>
-      <c r="AS69" t="s">
-        <v>1222</v>
-      </c>
-      <c r="AT69" t="s">
-        <v>1223</v>
-      </c>
       <c r="AU69" t="s">
         <v>55</v>
       </c>
@@ -16956,7 +16941,7 @@
         <v>55</v>
       </c>
       <c r="AX69" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="AY69" t="s">
         <v>92</v>
@@ -16964,25 +16949,25 @@
     </row>
     <row r="70" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B70" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E70" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="F70" t="s">
         <v>56</v>
       </c>
       <c r="G70" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="H70" t="s">
         <v>58</v>
@@ -16991,7 +16976,7 @@
         <v>59</v>
       </c>
       <c r="J70" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="K70" t="s">
         <v>61</v>
@@ -17012,7 +16997,7 @@
         <v>65</v>
       </c>
       <c r="Q70" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="R70" t="s">
         <v>61</v>
@@ -17033,7 +17018,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="X70" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="Y70" t="s">
         <v>72</v>
@@ -17081,31 +17066,31 @@
         <v>946</v>
       </c>
       <c r="AN70" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AO70" t="s">
+        <v>1231</v>
+      </c>
+      <c r="AP70" t="s">
         <v>1232</v>
       </c>
-      <c r="AO70" t="s">
+      <c r="AQ70" t="s">
         <v>1233</v>
       </c>
-      <c r="AP70" t="s">
+      <c r="AR70" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS70" t="s">
         <v>1234</v>
       </c>
-      <c r="AQ70" t="s">
+      <c r="AT70" t="s">
         <v>1235</v>
       </c>
-      <c r="AR70" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS70" t="s">
+      <c r="AU70" t="s">
         <v>1236</v>
       </c>
-      <c r="AT70" t="s">
+      <c r="AV70" t="s">
         <v>1237</v>
-      </c>
-      <c r="AU70" t="s">
-        <v>1238</v>
-      </c>
-      <c r="AV70" t="s">
-        <v>1239</v>
       </c>
       <c r="AW70" t="s">
         <v>55</v>
@@ -17117,30 +17102,30 @@
         <v>144</v>
       </c>
       <c r="AZ70" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="71" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B71" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E71" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="F71" t="s">
         <v>56</v>
       </c>
       <c r="G71" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="H71" t="s">
         <v>58</v>
@@ -17149,7 +17134,7 @@
         <v>59</v>
       </c>
       <c r="J71" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="K71" t="s">
         <v>61</v>
@@ -17170,7 +17155,7 @@
         <v>65</v>
       </c>
       <c r="Q71" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="R71" t="s">
         <v>61</v>
@@ -17179,7 +17164,7 @@
         <v>184</v>
       </c>
       <c r="T71" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="U71" t="s">
         <v>472</v>
@@ -17191,7 +17176,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="X71" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="Y71" t="s">
         <v>72</v>
@@ -17200,13 +17185,13 @@
         <v>475</v>
       </c>
       <c r="AA71" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AB71" t="s">
-        <v>127</v>
+        <v>651</v>
       </c>
       <c r="AC71" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="AD71" t="s">
         <v>77</v>
@@ -17239,31 +17224,31 @@
         <v>946</v>
       </c>
       <c r="AN71" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AO71" t="s">
+        <v>1231</v>
+      </c>
+      <c r="AP71" t="s">
         <v>1232</v>
       </c>
-      <c r="AO71" t="s">
+      <c r="AQ71" t="s">
         <v>1233</v>
       </c>
-      <c r="AP71" t="s">
-        <v>1234</v>
-      </c>
-      <c r="AQ71" t="s">
-        <v>1235</v>
-      </c>
       <c r="AR71" t="s">
         <v>55</v>
       </c>
       <c r="AS71" t="s">
+        <v>1246</v>
+      </c>
+      <c r="AT71" t="s">
+        <v>1247</v>
+      </c>
+      <c r="AU71" t="s">
         <v>1248</v>
       </c>
-      <c r="AT71" t="s">
+      <c r="AV71" t="s">
         <v>1249</v>
-      </c>
-      <c r="AU71" t="s">
-        <v>1250</v>
-      </c>
-      <c r="AV71" t="s">
-        <v>1251</v>
       </c>
       <c r="AW71" t="s">
         <v>55</v>
@@ -17277,25 +17262,25 @@
     </row>
     <row r="72" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B72" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E72" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="F72" t="s">
         <v>56</v>
       </c>
       <c r="G72" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="H72" t="s">
         <v>58</v>
@@ -17304,7 +17289,7 @@
         <v>59</v>
       </c>
       <c r="J72" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="K72" t="s">
         <v>61</v>
@@ -17325,7 +17310,7 @@
         <v>65</v>
       </c>
       <c r="Q72" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="R72" t="s">
         <v>61</v>
@@ -17334,7 +17319,7 @@
         <v>184</v>
       </c>
       <c r="T72" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="U72" t="s">
         <v>472</v>
@@ -17394,34 +17379,34 @@
         <v>946</v>
       </c>
       <c r="AN72" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AO72" t="s">
+        <v>1231</v>
+      </c>
+      <c r="AP72" t="s">
         <v>1232</v>
       </c>
-      <c r="AO72" t="s">
+      <c r="AQ72" t="s">
         <v>1233</v>
       </c>
-      <c r="AP72" t="s">
-        <v>1234</v>
-      </c>
-      <c r="AQ72" t="s">
+      <c r="AR72" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS72" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AT72" t="s">
         <v>1235</v>
       </c>
-      <c r="AR72" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS72" t="s">
+      <c r="AU72" t="s">
+        <v>1256</v>
+      </c>
+      <c r="AV72" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW72" t="s">
         <v>1257</v>
-      </c>
-      <c r="AT72" t="s">
-        <v>1237</v>
-      </c>
-      <c r="AU72" t="s">
-        <v>1258</v>
-      </c>
-      <c r="AV72" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW72" t="s">
-        <v>1259</v>
       </c>
       <c r="AX72" t="s">
         <v>55</v>
@@ -17432,16 +17417,16 @@
     </row>
     <row r="73" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B73" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E73" t="s">
         <v>55</v>
@@ -17450,7 +17435,7 @@
         <v>56</v>
       </c>
       <c r="G73" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="H73" t="s">
         <v>117</v>
@@ -17480,7 +17465,7 @@
         <v>1081</v>
       </c>
       <c r="Q73" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="R73" t="s">
         <v>61</v>
@@ -17501,13 +17486,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="X73" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="Y73" t="s">
         <v>158</v>
       </c>
       <c r="Z73" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="AA73" t="s">
         <v>1081</v>
@@ -17558,16 +17543,16 @@
         <v>55</v>
       </c>
       <c r="AQ73" t="s">
+        <v>1265</v>
+      </c>
+      <c r="AR73" t="s">
+        <v>1266</v>
+      </c>
+      <c r="AS73" t="s">
         <v>1267</v>
       </c>
-      <c r="AR73" t="s">
+      <c r="AT73" t="s">
         <v>1268</v>
-      </c>
-      <c r="AS73" t="s">
-        <v>1269</v>
-      </c>
-      <c r="AT73" t="s">
-        <v>1270</v>
       </c>
       <c r="AU73" t="s">
         <v>241</v>
@@ -17576,30 +17561,30 @@
         <v>55</v>
       </c>
       <c r="AW73" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="AX73" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="AY73" t="s">
         <v>92</v>
       </c>
       <c r="AZ73" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="74" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B74" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="E74" t="s">
         <v>55</v>
@@ -17608,7 +17593,7 @@
         <v>56</v>
       </c>
       <c r="G74" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="H74" t="s">
         <v>117</v>
@@ -17617,7 +17602,7 @@
         <v>118</v>
       </c>
       <c r="J74" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="K74" t="s">
         <v>61</v>
@@ -17629,7 +17614,7 @@
         <v>63</v>
       </c>
       <c r="N74" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="O74">
         <v>101</v>
@@ -17638,7 +17623,7 @@
         <v>209</v>
       </c>
       <c r="Q74" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="R74" t="s">
         <v>61</v>
@@ -17647,7 +17632,7 @@
         <v>67</v>
       </c>
       <c r="T74" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="U74" t="s">
         <v>69</v>
@@ -17659,7 +17644,7 @@
         <v>3.2</v>
       </c>
       <c r="X74" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="Y74" t="s">
         <v>72</v>
@@ -17674,31 +17659,31 @@
         <v>75</v>
       </c>
       <c r="AC74" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="AD74" t="s">
         <v>61</v>
       </c>
       <c r="AE74" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="AF74" t="s">
         <v>78</v>
       </c>
       <c r="AG74" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="AH74" t="s">
         <v>79</v>
       </c>
       <c r="AI74" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="AJ74" t="s">
         <v>106</v>
       </c>
       <c r="AK74" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="AL74">
         <v>0</v>
@@ -17716,19 +17701,19 @@
         <v>55</v>
       </c>
       <c r="AQ74" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AR74" t="s">
+        <v>1287</v>
+      </c>
+      <c r="AS74" t="s">
         <v>1288</v>
       </c>
-      <c r="AR74" t="s">
+      <c r="AT74" t="s">
         <v>1289</v>
       </c>
-      <c r="AS74" t="s">
+      <c r="AU74" t="s">
         <v>1290</v>
-      </c>
-      <c r="AT74" t="s">
-        <v>1291</v>
-      </c>
-      <c r="AU74" t="s">
-        <v>1292</v>
       </c>
       <c r="AV74" t="s">
         <v>55</v>
@@ -17745,16 +17730,16 @@
     </row>
     <row r="75" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B75" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E75" t="s">
         <v>55</v>
@@ -17763,7 +17748,7 @@
         <v>56</v>
       </c>
       <c r="G75" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="H75" t="s">
         <v>58</v>
@@ -17790,10 +17775,10 @@
         <v>397</v>
       </c>
       <c r="P75" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="Q75" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="R75" t="s">
         <v>534</v>
@@ -17802,7 +17787,7 @@
         <v>535</v>
       </c>
       <c r="T75" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="U75" t="s">
         <v>69</v>
@@ -17814,7 +17799,7 @@
         <v>1053</v>
       </c>
       <c r="X75" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="Y75" t="s">
         <v>72</v>
@@ -17823,16 +17808,16 @@
         <v>73</v>
       </c>
       <c r="AA75" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="AB75" t="s">
         <v>127</v>
       </c>
       <c r="AC75" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="AD75" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="AE75" t="s">
         <v>55</v>
@@ -17853,7 +17838,7 @@
         <v>131</v>
       </c>
       <c r="AK75" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="AL75">
         <v>0</v>
@@ -17871,19 +17856,19 @@
         <v>55</v>
       </c>
       <c r="AQ75" t="s">
+        <v>1303</v>
+      </c>
+      <c r="AR75" t="s">
+        <v>1304</v>
+      </c>
+      <c r="AS75" t="s">
         <v>1305</v>
       </c>
-      <c r="AR75" t="s">
+      <c r="AT75" t="s">
         <v>1306</v>
       </c>
-      <c r="AS75" t="s">
+      <c r="AU75" t="s">
         <v>1307</v>
-      </c>
-      <c r="AT75" t="s">
-        <v>1308</v>
-      </c>
-      <c r="AU75" t="s">
-        <v>1309</v>
       </c>
       <c r="AV75" t="s">
         <v>55</v>
@@ -17900,25 +17885,25 @@
     </row>
     <row r="76" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B76" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="E76" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="F76" t="s">
         <v>56</v>
       </c>
       <c r="G76" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="H76" t="s">
         <v>58</v>
@@ -17948,7 +17933,7 @@
         <v>65</v>
       </c>
       <c r="Q76" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="R76" t="s">
         <v>61</v>
@@ -17969,7 +17954,7 @@
         <v>1053</v>
       </c>
       <c r="X76" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="Y76" t="s">
         <v>72</v>
@@ -17978,19 +17963,19 @@
         <v>73</v>
       </c>
       <c r="AA76" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="AB76" t="s">
         <v>127</v>
       </c>
       <c r="AC76" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="AD76" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="AE76" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="AF76" t="s">
         <v>78</v>
@@ -18008,7 +17993,7 @@
         <v>80</v>
       </c>
       <c r="AK76" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="AL76">
         <v>0</v>
@@ -18026,25 +18011,25 @@
         <v>55</v>
       </c>
       <c r="AQ76" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AR76" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS76" t="s">
+        <v>1320</v>
+      </c>
+      <c r="AT76" t="s">
         <v>1321</v>
       </c>
-      <c r="AR76" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS76" t="s">
+      <c r="AU76" t="s">
         <v>1322</v>
       </c>
-      <c r="AT76" t="s">
+      <c r="AV76" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW76" t="s">
         <v>1323</v>
-      </c>
-      <c r="AU76" t="s">
-        <v>1324</v>
-      </c>
-      <c r="AV76" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW76" t="s">
-        <v>1325</v>
       </c>
       <c r="AX76" t="s">
         <v>55</v>
@@ -18055,25 +18040,25 @@
     </row>
     <row r="77" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B77" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="E77" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="F77" t="s">
         <v>56</v>
       </c>
       <c r="G77" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="H77" t="s">
         <v>58</v>
@@ -18103,7 +18088,7 @@
         <v>65</v>
       </c>
       <c r="Q77" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="R77" t="s">
         <v>61</v>
@@ -18124,7 +18109,7 @@
         <v>1053</v>
       </c>
       <c r="X77" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="Y77" t="s">
         <v>72</v>
@@ -18139,7 +18124,7 @@
         <v>127</v>
       </c>
       <c r="AC77" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="AD77" t="s">
         <v>77</v>
@@ -18163,7 +18148,7 @@
         <v>61</v>
       </c>
       <c r="AK77" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="AL77">
         <v>0</v>
@@ -18181,25 +18166,25 @@
         <v>55</v>
       </c>
       <c r="AQ77" t="s">
+        <v>1327</v>
+      </c>
+      <c r="AR77" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS77" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AT77" t="s">
+        <v>1321</v>
+      </c>
+      <c r="AU77" t="s">
         <v>1329</v>
       </c>
-      <c r="AR77" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS77" t="s">
+      <c r="AV77" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW77" t="s">
         <v>1330</v>
-      </c>
-      <c r="AT77" t="s">
-        <v>1323</v>
-      </c>
-      <c r="AU77" t="s">
-        <v>1331</v>
-      </c>
-      <c r="AV77" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW77" t="s">
-        <v>1332</v>
       </c>
       <c r="AX77" t="s">
         <v>55</v>
@@ -18210,16 +18195,16 @@
     </row>
     <row r="78" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B78" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="E78" t="s">
         <v>55</v>
@@ -18228,7 +18213,7 @@
         <v>56</v>
       </c>
       <c r="G78" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="H78" t="s">
         <v>58</v>
@@ -18237,7 +18222,7 @@
         <v>59</v>
       </c>
       <c r="J78" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="K78" t="s">
         <v>61</v>
@@ -18249,7 +18234,7 @@
         <v>63</v>
       </c>
       <c r="N78" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="O78">
         <v>108</v>
@@ -18258,16 +18243,16 @@
         <v>65</v>
       </c>
       <c r="Q78" t="s">
+        <v>1337</v>
+      </c>
+      <c r="R78" t="s">
+        <v>1338</v>
+      </c>
+      <c r="S78" t="s">
+        <v>123</v>
+      </c>
+      <c r="T78" t="s">
         <v>1339</v>
-      </c>
-      <c r="R78" t="s">
-        <v>1340</v>
-      </c>
-      <c r="S78" t="s">
-        <v>491</v>
-      </c>
-      <c r="T78" t="s">
-        <v>1341</v>
       </c>
       <c r="U78" t="s">
         <v>125</v>
@@ -18277,22 +18262,22 @@
       </c>
       <c r="W78" s="2"/>
       <c r="X78" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="Y78" t="s">
         <v>131</v>
       </c>
       <c r="Z78" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="AA78" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="AB78" t="s">
         <v>161</v>
       </c>
       <c r="AC78" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="AD78" t="s">
         <v>544</v>
@@ -18310,13 +18295,13 @@
         <v>79</v>
       </c>
       <c r="AI78" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="AJ78" t="s">
         <v>106</v>
       </c>
       <c r="AK78" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="AL78">
         <v>1</v>
@@ -18331,28 +18316,28 @@
         <v>478</v>
       </c>
       <c r="AP78" t="s">
+        <v>1345</v>
+      </c>
+      <c r="AQ78" t="s">
+        <v>1346</v>
+      </c>
+      <c r="AR78" t="s">
         <v>1347</v>
       </c>
-      <c r="AQ78" t="s">
+      <c r="AS78" t="s">
         <v>1348</v>
       </c>
-      <c r="AR78" t="s">
+      <c r="AT78" t="s">
         <v>1349</v>
       </c>
-      <c r="AS78" t="s">
+      <c r="AU78" t="s">
         <v>1350</v>
       </c>
-      <c r="AT78" t="s">
+      <c r="AV78" t="s">
         <v>1351</v>
       </c>
-      <c r="AU78" t="s">
+      <c r="AW78" t="s">
         <v>1352</v>
-      </c>
-      <c r="AV78" t="s">
-        <v>1353</v>
-      </c>
-      <c r="AW78" t="s">
-        <v>1354</v>
       </c>
       <c r="AX78" t="s">
         <v>55</v>
@@ -18361,21 +18346,21 @@
         <v>92</v>
       </c>
       <c r="AZ78" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="79" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B79" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="E79" t="s">
         <v>55</v>
@@ -18384,7 +18369,7 @@
         <v>56</v>
       </c>
       <c r="G79" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="H79" t="s">
         <v>58</v>
@@ -18393,7 +18378,7 @@
         <v>59</v>
       </c>
       <c r="J79" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="K79" t="s">
         <v>61</v>
@@ -18414,7 +18399,7 @@
         <v>65</v>
       </c>
       <c r="Q79" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="R79" t="s">
         <v>61</v>
@@ -18435,7 +18420,7 @@
         <v>3.2</v>
       </c>
       <c r="X79" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="Y79" t="s">
         <v>72</v>
@@ -18492,57 +18477,57 @@
         <v>55</v>
       </c>
       <c r="AQ79" t="s">
+        <v>1361</v>
+      </c>
+      <c r="AR79" t="s">
+        <v>1362</v>
+      </c>
+      <c r="AS79" t="s">
         <v>1363</v>
       </c>
-      <c r="AR79" t="s">
+      <c r="AT79" t="s">
         <v>1364</v>
       </c>
-      <c r="AS79" t="s">
+      <c r="AU79" t="s">
         <v>1365</v>
       </c>
-      <c r="AT79" t="s">
+      <c r="AV79" t="s">
         <v>1366</v>
       </c>
-      <c r="AU79" t="s">
+      <c r="AW79" t="s">
         <v>1367</v>
       </c>
-      <c r="AV79" t="s">
+      <c r="AX79" t="s">
         <v>1368</v>
-      </c>
-      <c r="AW79" t="s">
-        <v>1369</v>
-      </c>
-      <c r="AX79" t="s">
-        <v>1370</v>
       </c>
       <c r="AY79" t="s">
         <v>92</v>
       </c>
       <c r="AZ79" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="80" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="B80" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="E80" t="s">
-        <v>1375</v>
+        <v>520</v>
       </c>
       <c r="F80" t="s">
         <v>56</v>
       </c>
       <c r="G80" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="H80" t="s">
         <v>58</v>
@@ -18572,7 +18557,7 @@
         <v>65</v>
       </c>
       <c r="Q80" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="R80" t="s">
         <v>61</v>
@@ -18587,13 +18572,13 @@
         <v>69</v>
       </c>
       <c r="V80" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="W80" s="2" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="X80" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="Y80" t="s">
         <v>72</v>
@@ -18602,13 +18587,13 @@
         <v>475</v>
       </c>
       <c r="AA80" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="AB80" t="s">
         <v>127</v>
       </c>
       <c r="AC80" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="AD80" t="s">
         <v>77</v>
@@ -18647,60 +18632,60 @@
         <v>520</v>
       </c>
       <c r="AP80" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="AQ80" t="s">
         <v>55</v>
       </c>
       <c r="AR80" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="AS80" t="s">
+        <v>1379</v>
+      </c>
+      <c r="AT80" t="s">
+        <v>1380</v>
+      </c>
+      <c r="AU80" t="s">
+        <v>1381</v>
+      </c>
+      <c r="AV80" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW80" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX80" t="s">
         <v>1382</v>
-      </c>
-      <c r="AT80" t="s">
-        <v>1383</v>
-      </c>
-      <c r="AU80" t="s">
-        <v>1384</v>
-      </c>
-      <c r="AV80" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW80" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX80" t="s">
-        <v>1385</v>
       </c>
       <c r="AY80" t="s">
         <v>92</v>
       </c>
       <c r="AZ80" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="81" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="B81" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="E81" t="s">
-        <v>1387</v>
+        <v>500</v>
       </c>
       <c r="F81" t="s">
         <v>56</v>
       </c>
       <c r="G81" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="H81" t="s">
         <v>58</v>
@@ -18730,7 +18715,7 @@
         <v>65</v>
       </c>
       <c r="Q81" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="R81" t="s">
         <v>61</v>
@@ -18745,13 +18730,13 @@
         <v>69</v>
       </c>
       <c r="V81" t="s">
-        <v>1378</v>
+        <v>1385</v>
       </c>
       <c r="W81" s="2" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="X81" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="Y81" t="s">
         <v>72</v>
@@ -18760,13 +18745,13 @@
         <v>475</v>
       </c>
       <c r="AA81" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="AB81" t="s">
         <v>127</v>
       </c>
       <c r="AC81" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="AD81" t="s">
         <v>77</v>
@@ -18811,16 +18796,16 @@
         <v>55</v>
       </c>
       <c r="AR81" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="AS81" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="AT81" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="AU81" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="AV81" t="s">
         <v>55</v>
@@ -18837,16 +18822,16 @@
     </row>
     <row r="82" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="B82" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="E82" t="s">
         <v>55</v>
@@ -18855,7 +18840,7 @@
         <v>56</v>
       </c>
       <c r="G82" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="H82" t="s">
         <v>58</v>
@@ -18885,7 +18870,7 @@
         <v>65</v>
       </c>
       <c r="Q82" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="R82" t="s">
         <v>61</v>
@@ -18906,7 +18891,7 @@
         <v>3.2</v>
       </c>
       <c r="X82" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="Y82" t="s">
         <v>72</v>
@@ -18921,7 +18906,7 @@
         <v>127</v>
       </c>
       <c r="AC82" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="AD82" t="s">
         <v>77</v>
@@ -18963,25 +18948,25 @@
         <v>55</v>
       </c>
       <c r="AQ82" t="s">
+        <v>1397</v>
+      </c>
+      <c r="AR82" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS82" t="s">
+        <v>1398</v>
+      </c>
+      <c r="AT82" t="s">
+        <v>1399</v>
+      </c>
+      <c r="AU82" t="s">
         <v>1400</v>
       </c>
-      <c r="AR82" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS82" t="s">
+      <c r="AV82" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW82" t="s">
         <v>1401</v>
-      </c>
-      <c r="AT82" t="s">
-        <v>1402</v>
-      </c>
-      <c r="AU82" t="s">
-        <v>1403</v>
-      </c>
-      <c r="AV82" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW82" t="s">
-        <v>1404</v>
       </c>
       <c r="AX82" t="s">
         <v>55</v>
@@ -18992,16 +18977,16 @@
     </row>
     <row r="83" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="B83" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="E83" t="s">
         <v>55</v>
@@ -19010,7 +18995,7 @@
         <v>56</v>
       </c>
       <c r="G83" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="H83" t="s">
         <v>117</v>
@@ -19031,7 +19016,7 @@
         <v>63</v>
       </c>
       <c r="N83" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="O83">
         <v>175</v>
@@ -19040,7 +19025,7 @@
         <v>65</v>
       </c>
       <c r="Q83" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="R83" t="s">
         <v>61</v>
@@ -19049,7 +19034,7 @@
         <v>67</v>
       </c>
       <c r="T83" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="U83" t="s">
         <v>69</v>
@@ -19061,7 +19046,7 @@
         <v>3.2</v>
       </c>
       <c r="X83" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="Y83" t="s">
         <v>72</v>
@@ -19076,13 +19061,13 @@
         <v>127</v>
       </c>
       <c r="AC83" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AD83" t="s">
         <v>77</v>
       </c>
       <c r="AE83" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="AF83" t="s">
         <v>78</v>
@@ -19118,25 +19103,25 @@
         <v>55</v>
       </c>
       <c r="AQ83" t="s">
+        <v>1412</v>
+      </c>
+      <c r="AR83" t="s">
+        <v>1413</v>
+      </c>
+      <c r="AS83" t="s">
+        <v>1414</v>
+      </c>
+      <c r="AT83" t="s">
         <v>1415</v>
-      </c>
-      <c r="AR83" t="s">
-        <v>1416</v>
-      </c>
-      <c r="AS83" t="s">
-        <v>1417</v>
-      </c>
-      <c r="AT83" t="s">
-        <v>1418</v>
       </c>
       <c r="AU83" t="s">
         <v>241</v>
       </c>
       <c r="AV83" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="AW83" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="AX83" t="s">
         <v>55</v>
@@ -19145,21 +19130,21 @@
         <v>144</v>
       </c>
       <c r="AZ83" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="84" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="B84" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="E84" t="s">
         <v>55</v>
@@ -19168,7 +19153,7 @@
         <v>56</v>
       </c>
       <c r="G84" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="H84" t="s">
         <v>58</v>
@@ -19189,7 +19174,7 @@
         <v>63</v>
       </c>
       <c r="N84" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="O84">
         <v>100</v>
@@ -19198,7 +19183,7 @@
         <v>65</v>
       </c>
       <c r="Q84" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="R84" t="s">
         <v>61</v>
@@ -19219,7 +19204,7 @@
         <v>3.2</v>
       </c>
       <c r="X84" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="Y84" t="s">
         <v>72</v>
@@ -19240,7 +19225,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="AF84" t="s">
         <v>78</v>
@@ -19258,7 +19243,7 @@
         <v>61</v>
       </c>
       <c r="AK84" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="AL84">
         <v>0</v>
@@ -19276,48 +19261,48 @@
         <v>55</v>
       </c>
       <c r="AQ84" t="s">
+        <v>1426</v>
+      </c>
+      <c r="AR84" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS84" t="s">
+        <v>1427</v>
+      </c>
+      <c r="AT84" t="s">
+        <v>1428</v>
+      </c>
+      <c r="AU84" t="s">
         <v>1429</v>
       </c>
-      <c r="AR84" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS84" t="s">
+      <c r="AV84" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW84" t="s">
         <v>1430</v>
       </c>
-      <c r="AT84" t="s">
+      <c r="AX84" t="s">
         <v>1431</v>
-      </c>
-      <c r="AU84" t="s">
-        <v>1432</v>
-      </c>
-      <c r="AV84" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW84" t="s">
-        <v>1433</v>
-      </c>
-      <c r="AX84" t="s">
-        <v>1434</v>
       </c>
       <c r="AY84" t="s">
         <v>144</v>
       </c>
       <c r="AZ84" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="85" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="B85" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="E85" t="s">
         <v>55</v>
@@ -19326,7 +19311,7 @@
         <v>56</v>
       </c>
       <c r="G85" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="H85" t="s">
         <v>117</v>
@@ -19353,10 +19338,10 @@
         <v>10</v>
       </c>
       <c r="P85" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="Q85" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="R85" t="s">
         <v>61</v>
@@ -19371,13 +19356,13 @@
         <v>69</v>
       </c>
       <c r="V85" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="W85" s="2" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="X85" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="Y85" t="s">
         <v>72</v>
@@ -19434,25 +19419,25 @@
         <v>55</v>
       </c>
       <c r="AQ85" t="s">
+        <v>1442</v>
+      </c>
+      <c r="AR85" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AS85" t="s">
+        <v>1444</v>
+      </c>
+      <c r="AT85" t="s">
         <v>1445</v>
       </c>
-      <c r="AR85" t="s">
+      <c r="AU85" t="s">
         <v>1446</v>
       </c>
-      <c r="AS85" t="s">
+      <c r="AV85" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW85" t="s">
         <v>1447</v>
-      </c>
-      <c r="AT85" t="s">
-        <v>1448</v>
-      </c>
-      <c r="AU85" t="s">
-        <v>1449</v>
-      </c>
-      <c r="AV85" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW85" t="s">
-        <v>1450</v>
       </c>
       <c r="AX85" t="s">
         <v>55</v>
@@ -19461,21 +19446,21 @@
         <v>144</v>
       </c>
       <c r="AZ85" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="86" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="B86" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="E86" t="s">
         <v>55</v>
@@ -19484,7 +19469,7 @@
         <v>56</v>
       </c>
       <c r="G86" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="H86" t="s">
         <v>117</v>
@@ -19505,16 +19490,16 @@
         <v>63</v>
       </c>
       <c r="N86" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="O86">
         <v>19158</v>
       </c>
       <c r="P86" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="Q86" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="R86" t="s">
         <v>61</v>
@@ -19535,13 +19520,13 @@
         <v>3.2</v>
       </c>
       <c r="X86" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="Y86" t="s">
         <v>158</v>
       </c>
       <c r="Z86" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="AA86" t="s">
         <v>801</v>
@@ -19550,10 +19535,10 @@
         <v>326</v>
       </c>
       <c r="AC86" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="AD86" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="AE86" t="s">
         <v>55</v>
@@ -19565,7 +19550,7 @@
         <v>55</v>
       </c>
       <c r="AH86" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AI86" t="s">
         <v>55</v>
@@ -19589,60 +19574,60 @@
         <v>827</v>
       </c>
       <c r="AP86" t="s">
+        <v>1459</v>
+      </c>
+      <c r="AQ86" t="s">
+        <v>1460</v>
+      </c>
+      <c r="AR86" t="s">
+        <v>1461</v>
+      </c>
+      <c r="AS86" t="s">
         <v>1462</v>
       </c>
-      <c r="AQ86" t="s">
+      <c r="AT86" t="s">
         <v>1463</v>
       </c>
-      <c r="AR86" t="s">
+      <c r="AU86" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV86" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW86" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX86" t="s">
         <v>1464</v>
-      </c>
-      <c r="AS86" t="s">
-        <v>1465</v>
-      </c>
-      <c r="AT86" t="s">
-        <v>1466</v>
-      </c>
-      <c r="AU86" t="s">
-        <v>55</v>
-      </c>
-      <c r="AV86" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW86" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX86" t="s">
-        <v>1467</v>
       </c>
       <c r="AY86" t="s">
         <v>144</v>
       </c>
       <c r="AZ86" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="87" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="B87" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="E87" t="s">
         <v>55</v>
       </c>
       <c r="F87" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="G87" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="H87" t="s">
         <v>247</v>
@@ -19651,7 +19636,7 @@
         <v>248</v>
       </c>
       <c r="J87" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="K87" t="s">
         <v>530</v>
@@ -19669,10 +19654,10 @@
         <v>5</v>
       </c>
       <c r="P87" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="Q87" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="R87" t="s">
         <v>534</v>
@@ -19684,16 +19669,16 @@
         <v>55</v>
       </c>
       <c r="U87" t="s">
+        <v>1473</v>
+      </c>
+      <c r="V87" t="s">
+        <v>1474</v>
+      </c>
+      <c r="W87" s="2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="X87" t="s">
         <v>1476</v>
-      </c>
-      <c r="V87" t="s">
-        <v>1477</v>
-      </c>
-      <c r="W87" s="2" t="s">
-        <v>1478</v>
-      </c>
-      <c r="X87" t="s">
-        <v>1479</v>
       </c>
       <c r="Y87" t="s">
         <v>158</v>
@@ -19708,7 +19693,7 @@
         <v>161</v>
       </c>
       <c r="AC87" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="AD87" t="s">
         <v>544</v>
@@ -19723,7 +19708,7 @@
         <v>55</v>
       </c>
       <c r="AH87" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AI87" t="s">
         <v>55</v>
@@ -19741,7 +19726,7 @@
         <v>164</v>
       </c>
       <c r="AN87" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="AO87" t="s">
         <v>166</v>
@@ -19750,16 +19735,16 @@
         <v>55</v>
       </c>
       <c r="AQ87" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="AR87" t="s">
         <v>55</v>
       </c>
       <c r="AS87" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="AT87" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="AU87" t="s">
         <v>140</v>
@@ -19771,7 +19756,7 @@
         <v>55</v>
       </c>
       <c r="AX87" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="AY87" t="s">
         <v>92</v>
@@ -19779,16 +19764,16 @@
     </row>
     <row r="88" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="B88" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="E88" t="s">
         <v>55</v>
@@ -19797,7 +19782,7 @@
         <v>56</v>
       </c>
       <c r="G88" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="H88" t="s">
         <v>117</v>
@@ -19806,7 +19791,7 @@
         <v>118</v>
       </c>
       <c r="J88" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="K88" t="s">
         <v>61</v>
@@ -19827,7 +19812,7 @@
         <v>65</v>
       </c>
       <c r="Q88" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="R88" t="s">
         <v>61</v>
@@ -19848,7 +19833,7 @@
         <v>3.2</v>
       </c>
       <c r="X88" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="Y88" t="s">
         <v>72</v>
@@ -19863,19 +19848,19 @@
         <v>127</v>
       </c>
       <c r="AC88" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="AD88" t="s">
         <v>77</v>
       </c>
       <c r="AE88" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="AF88" t="s">
         <v>78</v>
       </c>
       <c r="AG88" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="AH88" t="s">
         <v>79</v>
@@ -19887,7 +19872,7 @@
         <v>106</v>
       </c>
       <c r="AK88" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="AL88">
         <v>0</v>
@@ -19902,19 +19887,19 @@
         <v>569</v>
       </c>
       <c r="AP88" t="s">
+        <v>1494</v>
+      </c>
+      <c r="AQ88" t="s">
+        <v>1495</v>
+      </c>
+      <c r="AR88" t="s">
+        <v>1496</v>
+      </c>
+      <c r="AS88" t="s">
         <v>1497</v>
       </c>
-      <c r="AQ88" t="s">
+      <c r="AT88" t="s">
         <v>1498</v>
-      </c>
-      <c r="AR88" t="s">
-        <v>1499</v>
-      </c>
-      <c r="AS88" t="s">
-        <v>1500</v>
-      </c>
-      <c r="AT88" t="s">
-        <v>1501</v>
       </c>
       <c r="AU88" t="s">
         <v>140</v>
@@ -19923,7 +19908,7 @@
         <v>55</v>
       </c>
       <c r="AW88" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="AX88" t="s">
         <v>55</v>
@@ -19934,16 +19919,16 @@
     </row>
     <row r="89" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="B89" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="E89" t="s">
         <v>55</v>
@@ -19952,7 +19937,7 @@
         <v>56</v>
       </c>
       <c r="G89" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="H89" t="s">
         <v>58</v>
@@ -19973,7 +19958,7 @@
         <v>63</v>
       </c>
       <c r="N89" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="O89">
         <v>37</v>
@@ -19982,7 +19967,7 @@
         <v>209</v>
       </c>
       <c r="Q89" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="R89" t="s">
         <v>61</v>
@@ -20003,7 +19988,7 @@
         <v>3.2</v>
       </c>
       <c r="X89" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="Y89" t="s">
         <v>72</v>
@@ -20024,7 +20009,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="AF89" t="s">
         <v>78</v>
@@ -20033,7 +20018,7 @@
         <v>130</v>
       </c>
       <c r="AH89" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AI89" t="s">
         <v>55</v>
@@ -20060,16 +20045,16 @@
         <v>55</v>
       </c>
       <c r="AQ89" t="s">
+        <v>1508</v>
+      </c>
+      <c r="AR89" t="s">
+        <v>1509</v>
+      </c>
+      <c r="AS89" t="s">
+        <v>1510</v>
+      </c>
+      <c r="AT89" t="s">
         <v>1511</v>
-      </c>
-      <c r="AR89" t="s">
-        <v>1512</v>
-      </c>
-      <c r="AS89" t="s">
-        <v>1513</v>
-      </c>
-      <c r="AT89" t="s">
-        <v>1514</v>
       </c>
       <c r="AU89" t="s">
         <v>140</v>
@@ -20078,7 +20063,7 @@
         <v>55</v>
       </c>
       <c r="AW89" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="AX89" t="s">
         <v>55</v>
@@ -20089,16 +20074,16 @@
     </row>
     <row r="90" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="B90" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="E90" t="s">
         <v>55</v>
@@ -20107,7 +20092,7 @@
         <v>56</v>
       </c>
       <c r="G90" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="H90" t="s">
         <v>58</v>
@@ -20137,7 +20122,7 @@
         <v>65</v>
       </c>
       <c r="Q90" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="R90" t="s">
         <v>61</v>
@@ -20146,7 +20131,7 @@
         <v>67</v>
       </c>
       <c r="T90" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="U90" t="s">
         <v>69</v>
@@ -20158,7 +20143,7 @@
         <v>3.2</v>
       </c>
       <c r="X90" s="4" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="Y90" t="s">
         <v>72</v>
@@ -20173,7 +20158,7 @@
         <v>326</v>
       </c>
       <c r="AC90" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="AD90" t="s">
         <v>77</v>
@@ -20188,10 +20173,10 @@
         <v>130</v>
       </c>
       <c r="AH90" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="AI90" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="AJ90" t="s">
         <v>418</v>
@@ -20212,51 +20197,51 @@
         <v>999</v>
       </c>
       <c r="AP90" t="s">
+        <v>1523</v>
+      </c>
+      <c r="AQ90" t="s">
+        <v>1524</v>
+      </c>
+      <c r="AR90" t="s">
+        <v>1525</v>
+      </c>
+      <c r="AS90" t="s">
         <v>1526</v>
       </c>
-      <c r="AQ90" t="s">
+      <c r="AT90" t="s">
         <v>1527</v>
       </c>
-      <c r="AR90" t="s">
+      <c r="AU90" t="s">
         <v>1528</v>
       </c>
-      <c r="AS90" t="s">
+      <c r="AV90" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW90" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX90" t="s">
         <v>1529</v>
-      </c>
-      <c r="AT90" t="s">
-        <v>1530</v>
-      </c>
-      <c r="AU90" t="s">
-        <v>1531</v>
-      </c>
-      <c r="AV90" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW90" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX90" t="s">
-        <v>1532</v>
       </c>
       <c r="AY90" t="s">
         <v>92</v>
       </c>
       <c r="AZ90" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="91" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="B91" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="E91" t="s">
         <v>55</v>
@@ -20265,7 +20250,7 @@
         <v>56</v>
       </c>
       <c r="G91" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="H91" t="s">
         <v>131</v>
@@ -20286,19 +20271,19 @@
         <v>131</v>
       </c>
       <c r="N91" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="O91">
         <v>2</v>
       </c>
       <c r="P91" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="Q91" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="R91" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="S91" t="s">
         <v>67</v>
@@ -20310,13 +20295,13 @@
         <v>69</v>
       </c>
       <c r="V91" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="W91" s="2" t="s">
         <v>307</v>
       </c>
       <c r="X91" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="Y91" t="s">
         <v>257</v>
@@ -20331,7 +20316,7 @@
         <v>161</v>
       </c>
       <c r="AC91" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="AD91" t="s">
         <v>78</v>
@@ -20343,10 +20328,10 @@
         <v>544</v>
       </c>
       <c r="AG91" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="AH91" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="AI91" t="s">
         <v>55</v>
@@ -20367,34 +20352,34 @@
         <v>131</v>
       </c>
       <c r="AO91" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AP91" t="s">
+        <v>1543</v>
+      </c>
+      <c r="AQ91" t="s">
+        <v>1544</v>
+      </c>
+      <c r="AR91" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS91" t="s">
+        <v>1545</v>
+      </c>
+      <c r="AT91" t="s">
         <v>1546</v>
       </c>
-      <c r="AQ91" t="s">
+      <c r="AU91" t="s">
         <v>1547</v>
       </c>
-      <c r="AR91" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS91" t="s">
+      <c r="AV91" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW91" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX91" t="s">
         <v>1548</v>
-      </c>
-      <c r="AT91" t="s">
-        <v>1549</v>
-      </c>
-      <c r="AU91" t="s">
-        <v>1550</v>
-      </c>
-      <c r="AV91" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW91" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX91" t="s">
-        <v>1551</v>
       </c>
       <c r="AY91" t="s">
         <v>92</v>
@@ -20402,16 +20387,16 @@
     </row>
     <row r="92" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="B92" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="E92" t="s">
         <v>55</v>
@@ -20420,7 +20405,7 @@
         <v>56</v>
       </c>
       <c r="G92" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="H92" t="s">
         <v>58</v>
@@ -20450,7 +20435,7 @@
         <v>1081</v>
       </c>
       <c r="Q92" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="R92" t="s">
         <v>61</v>
@@ -20465,19 +20450,19 @@
         <v>69</v>
       </c>
       <c r="V92" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="W92" s="2" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="X92" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="Y92" t="s">
         <v>158</v>
       </c>
       <c r="Z92" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="AA92" t="s">
         <v>1081</v>
@@ -20501,7 +20486,7 @@
         <v>55</v>
       </c>
       <c r="AH92" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AI92" t="s">
         <v>55</v>
@@ -20522,34 +20507,34 @@
         <v>131</v>
       </c>
       <c r="AO92" t="s">
+        <v>1556</v>
+      </c>
+      <c r="AP92" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AQ92" t="s">
+        <v>1558</v>
+      </c>
+      <c r="AR92" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS92" t="s">
         <v>1559</v>
       </c>
-      <c r="AP92" t="s">
+      <c r="AT92" t="s">
         <v>1560</v>
       </c>
-      <c r="AQ92" t="s">
+      <c r="AU92" t="s">
         <v>1561</v>
       </c>
-      <c r="AR92" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS92" t="s">
+      <c r="AV92" t="s">
         <v>1562</v>
       </c>
-      <c r="AT92" t="s">
+      <c r="AW92" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX92" t="s">
         <v>1563</v>
-      </c>
-      <c r="AU92" t="s">
-        <v>1564</v>
-      </c>
-      <c r="AV92" t="s">
-        <v>1565</v>
-      </c>
-      <c r="AW92" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX92" t="s">
-        <v>1566</v>
       </c>
       <c r="AY92" t="s">
         <v>92</v>
@@ -20557,16 +20542,16 @@
     </row>
     <row r="93" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="B93" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="E93" t="s">
         <v>55</v>
@@ -20575,7 +20560,7 @@
         <v>56</v>
       </c>
       <c r="G93" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="H93" t="s">
         <v>58</v>
@@ -20605,7 +20590,7 @@
         <v>65</v>
       </c>
       <c r="Q93" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="R93" t="s">
         <v>61</v>
@@ -20626,7 +20611,7 @@
         <v>3.2</v>
       </c>
       <c r="X93" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="Y93" t="s">
         <v>131</v>
@@ -20635,13 +20620,13 @@
         <v>131</v>
       </c>
       <c r="AA93" t="s">
-        <v>1573</v>
+        <v>309</v>
       </c>
       <c r="AB93" t="s">
         <v>75</v>
       </c>
       <c r="AC93" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="AD93" t="s">
         <v>77</v>
@@ -20683,19 +20668,19 @@
         <v>55</v>
       </c>
       <c r="AQ93" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="AR93" t="s">
         <v>55</v>
       </c>
       <c r="AS93" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="AT93" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="AU93" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="AV93" t="s">
         <v>55</v>
@@ -20712,16 +20697,16 @@
     </row>
     <row r="94" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="B94" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="E94" t="s">
         <v>55</v>
@@ -20730,7 +20715,7 @@
         <v>56</v>
       </c>
       <c r="G94" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="H94" t="s">
         <v>58</v>
@@ -20739,19 +20724,19 @@
         <v>59</v>
       </c>
       <c r="J94" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="K94" t="s">
         <v>530</v>
       </c>
       <c r="L94" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="M94" t="s">
         <v>63</v>
       </c>
       <c r="N94" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="O94">
         <v>205</v>
@@ -20760,7 +20745,7 @@
         <v>304</v>
       </c>
       <c r="Q94" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="R94" t="s">
         <v>61</v>
@@ -20769,19 +20754,19 @@
         <v>67</v>
       </c>
       <c r="T94" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="U94" t="s">
         <v>69</v>
       </c>
       <c r="V94" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="W94" s="2" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="X94" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="Y94" t="s">
         <v>257</v>
@@ -20796,13 +20781,13 @@
         <v>75</v>
       </c>
       <c r="AC94" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="AD94" t="s">
         <v>544</v>
       </c>
       <c r="AE94" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="AF94" t="s">
         <v>78</v>
@@ -20838,16 +20823,16 @@
         <v>55</v>
       </c>
       <c r="AQ94" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="AR94" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="AS94" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="AT94" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="AU94" t="s">
         <v>140</v>
@@ -20856,7 +20841,7 @@
         <v>55</v>
       </c>
       <c r="AW94" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="AX94" t="s">
         <v>55</v>
@@ -20865,21 +20850,21 @@
         <v>92</v>
       </c>
       <c r="AZ94" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="95" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="B95" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="E95" t="s">
         <v>55</v>
@@ -20888,7 +20873,7 @@
         <v>56</v>
       </c>
       <c r="G95" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="H95" t="s">
         <v>58</v>
@@ -20897,7 +20882,7 @@
         <v>59</v>
       </c>
       <c r="J95" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="K95" t="s">
         <v>61</v>
@@ -20918,7 +20903,7 @@
         <v>65</v>
       </c>
       <c r="Q95" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="R95" t="s">
         <v>61</v>
@@ -20933,13 +20918,13 @@
         <v>1069</v>
       </c>
       <c r="V95" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="W95" s="2">
         <v>1.6</v>
       </c>
       <c r="X95" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="Y95" t="s">
         <v>72</v>
@@ -20996,16 +20981,16 @@
         <v>55</v>
       </c>
       <c r="AQ95" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="AR95" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="AS95" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="AT95" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="AU95" t="s">
         <v>140</v>
@@ -21014,7 +20999,7 @@
         <v>55</v>
       </c>
       <c r="AW95" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="AX95" t="s">
         <v>55</v>
@@ -21025,25 +21010,25 @@
     </row>
     <row r="96" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="B96" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="E96" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="F96" t="s">
         <v>56</v>
       </c>
       <c r="G96" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="H96" t="s">
         <v>58</v>
@@ -21064,16 +21049,16 @@
         <v>63</v>
       </c>
       <c r="N96" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="O96">
         <v>612</v>
       </c>
       <c r="P96" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="Q96" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="R96" t="s">
         <v>61</v>
@@ -21088,19 +21073,19 @@
         <v>472</v>
       </c>
       <c r="V96" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="W96" s="2" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="X96" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="Y96" t="s">
         <v>158</v>
       </c>
       <c r="Z96" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="AA96" t="s">
         <v>326</v>
@@ -21124,7 +21109,7 @@
         <v>55</v>
       </c>
       <c r="AH96" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AI96" t="s">
         <v>55</v>
@@ -21148,31 +21133,31 @@
         <v>999</v>
       </c>
       <c r="AP96" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AQ96" t="s">
+        <v>1617</v>
+      </c>
+      <c r="AR96" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS96" t="s">
+        <v>1618</v>
+      </c>
+      <c r="AT96" t="s">
+        <v>1619</v>
+      </c>
+      <c r="AU96" t="s">
         <v>1620</v>
       </c>
-      <c r="AQ96" t="s">
+      <c r="AV96" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW96" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX96" t="s">
         <v>1621</v>
-      </c>
-      <c r="AR96" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS96" t="s">
-        <v>1622</v>
-      </c>
-      <c r="AT96" t="s">
-        <v>1623</v>
-      </c>
-      <c r="AU96" t="s">
-        <v>1624</v>
-      </c>
-      <c r="AV96" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW96" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX96" t="s">
-        <v>1625</v>
       </c>
       <c r="AY96" t="s">
         <v>92</v>
@@ -21180,25 +21165,25 @@
     </row>
     <row r="97" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="B97" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="E97" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="F97" t="s">
         <v>56</v>
       </c>
       <c r="G97" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="H97" t="s">
         <v>58</v>
@@ -21219,16 +21204,16 @@
         <v>63</v>
       </c>
       <c r="N97" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="O97">
         <v>612</v>
       </c>
       <c r="P97" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="Q97" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="R97" t="s">
         <v>61</v>
@@ -21243,19 +21228,19 @@
         <v>472</v>
       </c>
       <c r="V97" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="W97" s="2" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="X97" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="Y97" t="s">
         <v>158</v>
       </c>
       <c r="Z97" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="AA97" t="s">
         <v>326</v>
@@ -21279,7 +21264,7 @@
         <v>55</v>
       </c>
       <c r="AH97" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AI97" t="s">
         <v>55</v>
@@ -21297,37 +21282,37 @@
         <v>81</v>
       </c>
       <c r="AN97" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="AO97" t="s">
         <v>999</v>
       </c>
       <c r="AP97" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="AQ97" t="s">
+        <v>1617</v>
+      </c>
+      <c r="AR97" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS97" t="s">
+        <v>1626</v>
+      </c>
+      <c r="AT97" t="s">
+        <v>1627</v>
+      </c>
+      <c r="AU97" t="s">
+        <v>1628</v>
+      </c>
+      <c r="AV97" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW97" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX97" t="s">
         <v>1621</v>
-      </c>
-      <c r="AR97" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS97" t="s">
-        <v>1630</v>
-      </c>
-      <c r="AT97" t="s">
-        <v>1631</v>
-      </c>
-      <c r="AU97" t="s">
-        <v>1632</v>
-      </c>
-      <c r="AV97" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW97" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX97" t="s">
-        <v>1625</v>
       </c>
       <c r="AY97" t="s">
         <v>92</v>
@@ -21335,25 +21320,25 @@
     </row>
     <row r="98" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="B98" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="E98" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="F98" t="s">
         <v>56</v>
       </c>
       <c r="G98" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="H98" t="s">
         <v>58</v>
@@ -21374,16 +21359,16 @@
         <v>63</v>
       </c>
       <c r="N98" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="O98">
         <v>612</v>
       </c>
       <c r="P98" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="Q98" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="R98" t="s">
         <v>61</v>
@@ -21398,19 +21383,19 @@
         <v>472</v>
       </c>
       <c r="V98" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="W98" s="2" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="X98" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="Y98" t="s">
         <v>158</v>
       </c>
       <c r="Z98" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="AA98" t="s">
         <v>326</v>
@@ -21434,7 +21419,7 @@
         <v>55</v>
       </c>
       <c r="AH98" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AI98" t="s">
         <v>55</v>
@@ -21458,31 +21443,31 @@
         <v>215</v>
       </c>
       <c r="AP98" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="AQ98" t="s">
+        <v>1617</v>
+      </c>
+      <c r="AR98" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS98" t="s">
+        <v>1632</v>
+      </c>
+      <c r="AT98" t="s">
+        <v>1633</v>
+      </c>
+      <c r="AU98" t="s">
+        <v>1634</v>
+      </c>
+      <c r="AV98" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW98" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX98" t="s">
         <v>1621</v>
-      </c>
-      <c r="AR98" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS98" t="s">
-        <v>1636</v>
-      </c>
-      <c r="AT98" t="s">
-        <v>1637</v>
-      </c>
-      <c r="AU98" t="s">
-        <v>1638</v>
-      </c>
-      <c r="AV98" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW98" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX98" t="s">
-        <v>1625</v>
       </c>
       <c r="AY98" t="s">
         <v>92</v>
@@ -21490,25 +21475,25 @@
     </row>
     <row r="99" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="B99" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="E99" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="F99" t="s">
         <v>56</v>
       </c>
       <c r="G99" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="H99" t="s">
         <v>247</v>
@@ -21529,16 +21514,16 @@
         <v>131</v>
       </c>
       <c r="N99" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="O99">
         <v>2335</v>
       </c>
       <c r="P99" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="Q99" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="R99" t="s">
         <v>61</v>
@@ -21557,7 +21542,7 @@
       </c>
       <c r="W99" s="2"/>
       <c r="X99" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="Y99" t="s">
         <v>257</v>
@@ -21566,19 +21551,19 @@
         <v>131</v>
       </c>
       <c r="AA99" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="AB99" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="AC99" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="AD99" t="s">
         <v>61</v>
       </c>
       <c r="AE99" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="AF99" t="s">
         <v>61</v>
@@ -21590,13 +21575,13 @@
         <v>398</v>
       </c>
       <c r="AI99" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="AJ99" t="s">
         <v>61</v>
       </c>
       <c r="AK99" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="AL99">
         <v>0</v>
@@ -21608,22 +21593,22 @@
         <v>131</v>
       </c>
       <c r="AO99" t="s">
+        <v>1646</v>
+      </c>
+      <c r="AP99" t="s">
+        <v>1647</v>
+      </c>
+      <c r="AQ99" t="s">
+        <v>1648</v>
+      </c>
+      <c r="AR99" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS99" t="s">
+        <v>1649</v>
+      </c>
+      <c r="AT99" t="s">
         <v>1650</v>
-      </c>
-      <c r="AP99" t="s">
-        <v>1651</v>
-      </c>
-      <c r="AQ99" t="s">
-        <v>1652</v>
-      </c>
-      <c r="AR99" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS99" t="s">
-        <v>1653</v>
-      </c>
-      <c r="AT99" t="s">
-        <v>1654</v>
       </c>
       <c r="AU99" t="s">
         <v>55</v>
@@ -21643,25 +21628,25 @@
     </row>
     <row r="100" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="B100" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="E100" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="F100" t="s">
         <v>56</v>
       </c>
       <c r="G100" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="H100" t="s">
         <v>58</v>
@@ -21682,16 +21667,16 @@
         <v>131</v>
       </c>
       <c r="N100" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="O100">
         <v>668</v>
       </c>
       <c r="P100" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="Q100" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="R100" t="s">
         <v>61</v>
@@ -21710,7 +21695,7 @@
       </c>
       <c r="W100" s="2"/>
       <c r="X100" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="Y100" t="s">
         <v>72</v>
@@ -21719,37 +21704,37 @@
         <v>73</v>
       </c>
       <c r="AA100" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="AB100" t="s">
         <v>127</v>
       </c>
       <c r="AC100" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="AD100" t="s">
         <v>77</v>
       </c>
       <c r="AE100" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="AF100" t="s">
         <v>78</v>
       </c>
       <c r="AG100" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="AH100" t="s">
         <v>79</v>
       </c>
       <c r="AI100" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="AJ100" t="s">
         <v>131</v>
       </c>
       <c r="AK100" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="AL100">
         <v>0</v>
@@ -21761,22 +21746,22 @@
         <v>131</v>
       </c>
       <c r="AO100" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="AP100" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="AQ100" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="AR100" t="s">
         <v>55</v>
       </c>
       <c r="AS100" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="AT100" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="AU100" t="s">
         <v>55</v>
@@ -21785,7 +21770,7 @@
         <v>55</v>
       </c>
       <c r="AW100" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="AX100" t="s">
         <v>55</v>
@@ -21796,16 +21781,16 @@
     </row>
     <row r="101" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="B101" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="E101" t="s">
         <v>55</v>
@@ -21814,7 +21799,7 @@
         <v>56</v>
       </c>
       <c r="G101" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="H101" t="s">
         <v>58</v>
@@ -21835,7 +21820,7 @@
         <v>63</v>
       </c>
       <c r="N101" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="O101">
         <v>357</v>
@@ -21844,7 +21829,7 @@
         <v>65</v>
       </c>
       <c r="Q101" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="R101" t="s">
         <v>61</v>
@@ -21863,13 +21848,13 @@
       </c>
       <c r="W101" s="2"/>
       <c r="X101" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="Y101" t="s">
         <v>158</v>
       </c>
       <c r="Z101" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="AA101" t="s">
         <v>326</v>
@@ -21878,7 +21863,7 @@
         <v>326</v>
       </c>
       <c r="AC101" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="AD101" t="s">
         <v>61</v>
@@ -21890,10 +21875,10 @@
         <v>78</v>
       </c>
       <c r="AG101" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="AH101" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AI101" t="s">
         <v>55</v>
@@ -21917,28 +21902,28 @@
         <v>326</v>
       </c>
       <c r="AP101" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AQ101" t="s">
+        <v>1673</v>
+      </c>
+      <c r="AR101" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS101" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AT101" t="s">
+        <v>1675</v>
+      </c>
+      <c r="AU101" t="s">
         <v>1676</v>
       </c>
-      <c r="AQ101" t="s">
+      <c r="AV101" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW101" t="s">
         <v>1677</v>
-      </c>
-      <c r="AR101" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS101" t="s">
-        <v>1678</v>
-      </c>
-      <c r="AT101" t="s">
-        <v>1679</v>
-      </c>
-      <c r="AU101" t="s">
-        <v>1680</v>
-      </c>
-      <c r="AV101" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW101" t="s">
-        <v>1681</v>
       </c>
       <c r="AX101" t="s">
         <v>55</v>
@@ -21949,16 +21934,16 @@
     </row>
     <row r="102" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="B102" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="E102" t="s">
         <v>55</v>
@@ -21967,7 +21952,7 @@
         <v>56</v>
       </c>
       <c r="G102" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="H102" t="s">
         <v>58</v>
@@ -21988,7 +21973,7 @@
         <v>63</v>
       </c>
       <c r="N102" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="O102">
         <v>56</v>
@@ -21997,7 +21982,7 @@
         <v>209</v>
       </c>
       <c r="Q102" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="R102" t="s">
         <v>61</v>
@@ -22018,7 +22003,7 @@
         <v>3.2</v>
       </c>
       <c r="X102" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="Y102" t="s">
         <v>72</v>
@@ -22033,31 +22018,31 @@
         <v>75</v>
       </c>
       <c r="AC102" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="AD102" t="s">
         <v>77</v>
       </c>
       <c r="AE102" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="AF102" t="s">
         <v>78</v>
       </c>
       <c r="AG102" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="AH102" t="s">
         <v>79</v>
       </c>
       <c r="AI102" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="AJ102" t="s">
         <v>80</v>
       </c>
       <c r="AK102" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="AL102">
         <v>0</v>
@@ -22075,28 +22060,28 @@
         <v>55</v>
       </c>
       <c r="AQ102" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AR102" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AS102" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AT102" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AU102" t="s">
         <v>1692</v>
       </c>
-      <c r="AR102" t="s">
+      <c r="AV102" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW102" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX102" t="s">
         <v>1693</v>
-      </c>
-      <c r="AS102" t="s">
-        <v>1694</v>
-      </c>
-      <c r="AT102" t="s">
-        <v>1695</v>
-      </c>
-      <c r="AU102" t="s">
-        <v>1696</v>
-      </c>
-      <c r="AV102" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW102" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX102" t="s">
-        <v>1697</v>
       </c>
       <c r="AY102" t="s">
         <v>144</v>
@@ -22104,16 +22089,16 @@
     </row>
     <row r="103" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="B103" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="E103" t="s">
         <v>55</v>
@@ -22122,7 +22107,7 @@
         <v>56</v>
       </c>
       <c r="G103" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="H103" t="s">
         <v>58</v>
@@ -22131,7 +22116,7 @@
         <v>59</v>
       </c>
       <c r="J103" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="K103" t="s">
         <v>61</v>
@@ -22152,7 +22137,7 @@
         <v>65</v>
       </c>
       <c r="Q103" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="R103" t="s">
         <v>61</v>
@@ -22167,13 +22152,13 @@
         <v>69</v>
       </c>
       <c r="V103" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="W103" s="2" t="s">
         <v>307</v>
       </c>
       <c r="X103" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="Y103" t="s">
         <v>72</v>
@@ -22188,31 +22173,31 @@
         <v>75</v>
       </c>
       <c r="AC103" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="AD103" t="s">
         <v>131</v>
       </c>
       <c r="AE103" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="AF103" t="s">
         <v>78</v>
       </c>
       <c r="AG103" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="AH103" t="s">
         <v>79</v>
       </c>
       <c r="AI103" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="AJ103" t="s">
         <v>106</v>
       </c>
       <c r="AK103" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="AL103">
         <v>0</v>
@@ -22230,25 +22215,25 @@
         <v>55</v>
       </c>
       <c r="AQ103" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="AR103" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="AS103" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="AT103" t="s">
         <v>447</v>
       </c>
       <c r="AU103" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="AV103" t="s">
         <v>55</v>
       </c>
       <c r="AW103" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="AX103" t="s">
         <v>55</v>
@@ -22257,21 +22242,21 @@
         <v>144</v>
       </c>
       <c r="AZ103" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="104" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="B104" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="E104" t="s">
         <v>55</v>
@@ -22280,7 +22265,7 @@
         <v>56</v>
       </c>
       <c r="G104" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="H104" t="s">
         <v>58</v>
@@ -22310,13 +22295,13 @@
         <v>65</v>
       </c>
       <c r="Q104" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="R104" t="s">
         <v>61</v>
       </c>
       <c r="S104" t="s">
-        <v>184</v>
+        <v>67</v>
       </c>
       <c r="T104" t="s">
         <v>55</v>
@@ -22325,13 +22310,13 @@
         <v>69</v>
       </c>
       <c r="V104" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="W104" s="2">
         <v>3.3</v>
       </c>
       <c r="X104" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="Y104" t="s">
         <v>72</v>
@@ -22346,31 +22331,31 @@
         <v>75</v>
       </c>
       <c r="AC104" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="AD104" t="s">
         <v>77</v>
       </c>
       <c r="AE104" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="AF104" t="s">
         <v>78</v>
       </c>
       <c r="AG104" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="AH104" t="s">
         <v>79</v>
       </c>
       <c r="AI104" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="AJ104" t="s">
         <v>106</v>
       </c>
       <c r="AK104" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="AL104">
         <v>0</v>
@@ -22388,19 +22373,19 @@
         <v>55</v>
       </c>
       <c r="AQ104" t="s">
+        <v>1722</v>
+      </c>
+      <c r="AR104" t="s">
+        <v>1723</v>
+      </c>
+      <c r="AS104" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AT104" t="s">
+        <v>1725</v>
+      </c>
+      <c r="AU104" t="s">
         <v>1726</v>
-      </c>
-      <c r="AR104" t="s">
-        <v>1727</v>
-      </c>
-      <c r="AS104" t="s">
-        <v>1728</v>
-      </c>
-      <c r="AT104" t="s">
-        <v>1729</v>
-      </c>
-      <c r="AU104" t="s">
-        <v>1730</v>
       </c>
       <c r="AV104" t="s">
         <v>55</v>
@@ -22417,16 +22402,16 @@
     </row>
     <row r="105" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="B105" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="E105" t="s">
         <v>55</v>
@@ -22435,7 +22420,7 @@
         <v>56</v>
       </c>
       <c r="G105" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="H105" t="s">
         <v>58</v>
@@ -22465,13 +22450,13 @@
         <v>65</v>
       </c>
       <c r="Q105" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="R105" t="s">
         <v>61</v>
       </c>
       <c r="S105" t="s">
-        <v>1736</v>
+        <v>535</v>
       </c>
       <c r="T105" t="s">
         <v>55</v>
@@ -22486,7 +22471,7 @@
         <v>1053</v>
       </c>
       <c r="X105" t="s">
-        <v>1737</v>
+        <v>1732</v>
       </c>
       <c r="Y105" t="s">
         <v>72</v>
@@ -22495,13 +22480,13 @@
         <v>73</v>
       </c>
       <c r="AA105" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AB105" t="s">
         <v>75</v>
       </c>
       <c r="AC105" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="AD105" t="s">
         <v>77</v>
@@ -22525,7 +22510,7 @@
         <v>193</v>
       </c>
       <c r="AK105" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
       <c r="AL105">
         <v>0</v>
@@ -22534,25 +22519,25 @@
         <v>133</v>
       </c>
       <c r="AN105" t="s">
-        <v>1740</v>
+        <v>1735</v>
       </c>
       <c r="AO105" t="s">
         <v>135</v>
       </c>
       <c r="AP105" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="AQ105" t="s">
-        <v>1742</v>
+        <v>1737</v>
       </c>
       <c r="AR105" t="s">
         <v>55</v>
       </c>
       <c r="AS105" t="s">
-        <v>1743</v>
+        <v>1738</v>
       </c>
       <c r="AT105" t="s">
-        <v>1744</v>
+        <v>1739</v>
       </c>
       <c r="AU105" t="s">
         <v>140</v>
@@ -22561,7 +22546,7 @@
         <v>55</v>
       </c>
       <c r="AW105" t="s">
-        <v>1745</v>
+        <v>1740</v>
       </c>
       <c r="AX105" t="s">
         <v>55</v>
@@ -22570,7 +22555,7 @@
         <v>92</v>
       </c>
       <c r="AZ105" t="s">
-        <v>1746</v>
+        <v>1741</v>
       </c>
     </row>
   </sheetData>
